--- a/Python/datasets/Experiments/output/results20241230.xlsx
+++ b/Python/datasets/Experiments/output/results20241230.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86DECD1-FB8A-40EB-A01F-422A21EFE8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6770AC-6ECD-49E5-8114-773D97CBDED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6035C6A1-F9DE-48BD-AD3B-5A2CA49F8B6B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="43">
   <si>
     <t>Dataset</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>Running time (including initial read) in seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       chess  100 -&gt;   14,9s       original implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;    0,055s 30MB with diffset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;    0,045s 28MB with intersection, bitSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;    0.101s 36MB with intersection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;    0,6s   84MB with intersection first stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             1000 -&gt; 2024,6        original implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;    0,523s  38MB with diffset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;    0,152s  12MB with diffset, bitSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;    1,199s  85MB with intersection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;    0,151s  13MB with intersection, bitSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;    8,000s 151MB with intersection first stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;   30,500s 163MB with "original" diffsets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            10000 -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;   16.693s 341MB with diffset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;   11,712s  39MB with diffset, bitSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;   23,767s 722MB with intersection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -&gt;   11,764s  38MB with intersection, bitSet</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6786672-0DA8-4A5B-8DAA-4F276EA38086}">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1580,7 @@
       </c>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1612,7 @@
         <v>7.4219999999999994E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1593,7 +1644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>100</v>
       </c>
@@ -1625,7 +1676,7 @@
         <v>286.9375</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1000</v>
       </c>
@@ -1657,7 +1708,7 @@
         <v>1851.359375</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10000</v>
       </c>
@@ -1689,7 +1740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1720,8 +1771,11 @@
       <c r="K23" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1752,8 +1806,11 @@
       <c r="K24" s="2">
         <v>0.49332999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1784,8 +1841,11 @@
       <c r="K25" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>102</v>
       </c>
@@ -1816,8 +1876,11 @@
       <c r="K26" s="16">
         <v>14.640625</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1001</v>
       </c>
@@ -1848,8 +1911,11 @@
       <c r="K27" s="16">
         <v>38.703125</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10028</v>
       </c>
@@ -1880,8 +1946,16 @@
       <c r="K28" s="16">
         <v>214.5390625</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1912,8 +1986,11 @@
       <c r="K30" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1944,8 +2021,11 @@
       <c r="K31" s="2">
         <v>0.33333000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -1976,8 +2056,11 @@
       <c r="K32" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>100</v>
       </c>
@@ -2008,8 +2091,11 @@
       <c r="K33" s="16">
         <v>93.78125</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1003</v>
       </c>
@@ -2040,8 +2126,11 @@
       <c r="K34" s="16">
         <v>657.50390625</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>10015</v>
       </c>
@@ -2072,8 +2161,16 @@
       <c r="K35" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -2104,8 +2201,11 @@
       <c r="K37" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
@@ -2136,8 +2236,11 @@
       <c r="K38" s="2">
         <v>0.12328</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -2168,8 +2271,11 @@
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>106</v>
       </c>
@@ -2201,7 +2307,7 @@
         <v>15.05859375</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1008</v>
       </c>
@@ -2233,7 +2339,7 @@
         <v>35.09375</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10011</v>
       </c>
@@ -2265,7 +2371,7 @@
         <v>150.375</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
@@ -2329,7 +2435,7 @@
         <v>3.5020000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
@@ -2361,7 +2467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>100</v>
       </c>
@@ -2393,7 +2499,7 @@
         <v>69.62109375</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1000</v>
       </c>

--- a/Python/datasets/Experiments/output/results20241230.xlsx
+++ b/Python/datasets/Experiments/output/results20241230.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6770AC-6ECD-49E5-8114-773D97CBDED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0510C6DE-9E94-4BEA-B39D-CE29FF616119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6035C6A1-F9DE-48BD-AD3B-5A2CA49F8B6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6035C6A1-F9DE-48BD-AD3B-5A2CA49F8B6B}"/>
   </bookViews>
   <sheets>
     <sheet name="results20241225" sheetId="1" r:id="rId1"/>
+    <sheet name="Experiments" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="56">
   <si>
     <t>Dataset</t>
   </si>
@@ -160,6 +161,45 @@
   </si>
   <si>
     <t xml:space="preserve">                  -&gt;   11,764s  38MB with intersection, bitSet</t>
+  </si>
+  <si>
+    <t>HTK Miner</t>
+  </si>
+  <si>
+    <t>BTK</t>
+  </si>
+  <si>
+    <t>Read Dataset Time: 4.577 Seconds</t>
+  </si>
+  <si>
+    <t>TB-Tree construction Time: 60.209 Seconds</t>
+  </si>
+  <si>
+    <t>B-List construction Time: 3.755 Seconds</t>
+  </si>
+  <si>
+    <t>FI mining Time: 174.747 Seconds</t>
+  </si>
+  <si>
+    <t>Total Execution Time: 243.287 Seconds</t>
+  </si>
+  <si>
+    <t>FIM found:100</t>
+  </si>
+  <si>
+    <t>Absolute minSup:278848</t>
+  </si>
+  <si>
+    <t>Relative minSup:0.8196999850080692</t>
+  </si>
+  <si>
+    <t>Max Memory:2525360128</t>
+  </si>
+  <si>
+    <t>Top K</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -332,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +594,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -730,7 +782,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -754,6 +806,78 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="18" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="17" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="17" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -800,7 +924,548 @@
     <cellStyle name="Τίτλος" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Υπολογισμός" xfId="11" builtinId="22" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1132,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6786672-0DA8-4A5B-8DAA-4F276EA38086}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3531,4 +4196,2371 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F28AEF2-AE5E-4CBE-A1AE-68482664036D}">
+  <dimension ref="A1:Y84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="H1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>102</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="21">
+        <f>results20241225!D5</f>
+        <v>11.41</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="H5" s="2">
+        <v>102</v>
+      </c>
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="33">
+        <f>results20241225!J5</f>
+        <v>69.265625</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="2">
+        <v>917</v>
+      </c>
+      <c r="C6" s="21">
+        <f>results20241225!D6</f>
+        <v>17.57</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="26"/>
+      <c r="H6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>917</v>
+      </c>
+      <c r="J6" s="33">
+        <f>results20241225!J6</f>
+        <v>220.92578125</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="38"/>
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>10007</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3481</v>
+      </c>
+      <c r="C7" s="21">
+        <f>results20241225!D7</f>
+        <v>144.38</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="H7" s="2">
+        <v>10007</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3481</v>
+      </c>
+      <c r="J7" s="33">
+        <f>results20241225!J7</f>
+        <v>2652.66015625</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>100</v>
+      </c>
+      <c r="B12" s="2">
+        <v>98</v>
+      </c>
+      <c r="C12" s="21">
+        <f>results20241225!D12</f>
+        <v>0.64</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="H12" s="2">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2">
+        <v>98</v>
+      </c>
+      <c r="J12" s="33">
+        <f>results20241225!J12</f>
+        <v>20.8515625</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B13" s="2">
+        <v>509</v>
+      </c>
+      <c r="C13" s="21">
+        <f>results20241225!D13</f>
+        <v>1.7</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="H13" s="2">
+        <v>1001</v>
+      </c>
+      <c r="I13" s="2">
+        <v>509</v>
+      </c>
+      <c r="J13" s="33">
+        <f>results20241225!J13</f>
+        <v>31.4609375</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="13"/>
+      <c r="T13" s="49"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10154</v>
+      </c>
+      <c r="B14" s="2">
+        <v>758</v>
+      </c>
+      <c r="C14" s="21">
+        <f>results20241225!D14</f>
+        <v>49.64</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="H14" s="2">
+        <v>10154</v>
+      </c>
+      <c r="I14" s="2">
+        <v>758</v>
+      </c>
+      <c r="J14" s="33">
+        <f>results20241225!J14</f>
+        <v>153.75</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="50">
+        <v>102</v>
+      </c>
+      <c r="B19" s="50">
+        <v>100</v>
+      </c>
+      <c r="C19" s="21">
+        <f>results20241225!D19</f>
+        <v>9.26</v>
+      </c>
+      <c r="D19" s="21">
+        <v>243.19</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="H19" s="50">
+        <v>102</v>
+      </c>
+      <c r="I19" s="50">
+        <v>100</v>
+      </c>
+      <c r="J19" s="33">
+        <f>results20241225!J19</f>
+        <v>29.07421875</v>
+      </c>
+      <c r="K19" s="38">
+        <v>2525</v>
+      </c>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
+        <v>1001</v>
+      </c>
+      <c r="B20" s="50">
+        <v>986</v>
+      </c>
+      <c r="C20" s="21">
+        <f>results20241225!D20</f>
+        <v>10.19</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="H20" s="50">
+        <v>1001</v>
+      </c>
+      <c r="I20" s="50">
+        <v>986</v>
+      </c>
+      <c r="J20" s="33">
+        <f>results20241225!J20</f>
+        <v>127.6875</v>
+      </c>
+      <c r="K20" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="39"/>
+      <c r="M20" s="38"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="50">
+        <v>10007</v>
+      </c>
+      <c r="B21" s="50">
+        <v>9137</v>
+      </c>
+      <c r="C21" s="21">
+        <f>results20241225!D21</f>
+        <v>23.17</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="H21" s="50">
+        <v>10007</v>
+      </c>
+      <c r="I21" s="50">
+        <v>9137</v>
+      </c>
+      <c r="J21" s="33">
+        <f>results20241225!J21</f>
+        <v>798.39453125</v>
+      </c>
+      <c r="K21" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="32"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="50">
+        <v>102</v>
+      </c>
+      <c r="B26" s="50">
+        <v>71</v>
+      </c>
+      <c r="C26" s="21">
+        <f>results20241225!D26</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D26" s="29">
+        <v>0.68</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="H26" s="50">
+        <v>102</v>
+      </c>
+      <c r="I26" s="50">
+        <v>71</v>
+      </c>
+      <c r="J26" s="33">
+        <f>results20241225!J26</f>
+        <v>10.9765625</v>
+      </c>
+      <c r="K26" s="38">
+        <v>38</v>
+      </c>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="50">
+        <v>1001</v>
+      </c>
+      <c r="B27" s="50">
+        <v>247</v>
+      </c>
+      <c r="C27" s="21">
+        <f>results20241225!D27</f>
+        <v>0.39</v>
+      </c>
+      <c r="D27" s="30">
+        <v>4.2789999999999999</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="26"/>
+      <c r="H27" s="50">
+        <v>1001</v>
+      </c>
+      <c r="I27" s="50">
+        <v>247</v>
+      </c>
+      <c r="J27" s="33">
+        <f>results20241225!J27</f>
+        <v>13.1171875</v>
+      </c>
+      <c r="K27" s="38">
+        <v>38</v>
+      </c>
+      <c r="L27" s="39"/>
+      <c r="M27" s="38"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="50">
+        <v>10028</v>
+      </c>
+      <c r="B28" s="50">
+        <v>556</v>
+      </c>
+      <c r="C28" s="21">
+        <f>results20241225!D28</f>
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="H28" s="50">
+        <v>10028</v>
+      </c>
+      <c r="I28" s="50">
+        <v>556</v>
+      </c>
+      <c r="J28" s="33">
+        <f>results20241225!J28</f>
+        <v>28.9375</v>
+      </c>
+      <c r="K28" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43</v>
+      </c>
+      <c r="D31" s="2">
+        <v>67557</v>
+      </c>
+      <c r="E31" s="2">
+        <v>129</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="32">
+        <v>67557</v>
+      </c>
+      <c r="K31" s="37">
+        <v>129</v>
+      </c>
+      <c r="L31" s="37">
+        <v>43</v>
+      </c>
+      <c r="M31" s="37">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>100</v>
+      </c>
+      <c r="B33" s="2">
+        <v>76</v>
+      </c>
+      <c r="C33" s="21">
+        <f>results20241225!D33</f>
+        <v>1.33</v>
+      </c>
+      <c r="D33" s="29">
+        <v>20.094000000000001</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="H33" s="2">
+        <v>100</v>
+      </c>
+      <c r="I33" s="2">
+        <v>76</v>
+      </c>
+      <c r="J33" s="33">
+        <f>results20241225!J33</f>
+        <v>15.76171875</v>
+      </c>
+      <c r="K33" s="38">
+        <v>456</v>
+      </c>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B34" s="2">
+        <v>423</v>
+      </c>
+      <c r="C34" s="21">
+        <f>results20241225!D34</f>
+        <v>1.48</v>
+      </c>
+      <c r="D34" s="30">
+        <v>34.046999999999997</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="26"/>
+      <c r="H34" s="2">
+        <v>1003</v>
+      </c>
+      <c r="I34" s="2">
+        <v>423</v>
+      </c>
+      <c r="J34" s="33">
+        <f>results20241225!J34</f>
+        <v>31.82421875</v>
+      </c>
+      <c r="K34" s="38">
+        <v>456</v>
+      </c>
+      <c r="L34" s="39"/>
+      <c r="M34" s="38"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>10015</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1605</v>
+      </c>
+      <c r="C35" s="21">
+        <f>results20241225!D35</f>
+        <v>11.64</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="H35" s="2">
+        <v>10015</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1605</v>
+      </c>
+      <c r="J35" s="33">
+        <f>results20241225!J35</f>
+        <v>194.27734375</v>
+      </c>
+      <c r="K35" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="2">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8124</v>
+      </c>
+      <c r="E38" s="2">
+        <v>119</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.12328</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="32">
+        <v>8124</v>
+      </c>
+      <c r="K38" s="37">
+        <v>119</v>
+      </c>
+      <c r="L38" s="37">
+        <v>23</v>
+      </c>
+      <c r="M38" s="37">
+        <v>0.12328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>106</v>
+      </c>
+      <c r="B40" s="2">
+        <v>31</v>
+      </c>
+      <c r="C40" s="21">
+        <f>results20241225!D40</f>
+        <v>0.31</v>
+      </c>
+      <c r="D40" s="29">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="H40" s="2">
+        <v>106</v>
+      </c>
+      <c r="I40" s="2">
+        <v>31</v>
+      </c>
+      <c r="J40" s="33">
+        <f>results20241225!J40</f>
+        <v>11.35546875</v>
+      </c>
+      <c r="K40" s="38">
+        <v>39</v>
+      </c>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B41" s="2">
+        <v>164</v>
+      </c>
+      <c r="C41" s="21">
+        <f>results20241225!D41</f>
+        <v>0.39</v>
+      </c>
+      <c r="D41" s="30">
+        <v>1.216</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="26"/>
+      <c r="H41" s="2">
+        <v>1008</v>
+      </c>
+      <c r="I41" s="2">
+        <v>164</v>
+      </c>
+      <c r="J41" s="33">
+        <f>results20241225!J41</f>
+        <v>13.33203125</v>
+      </c>
+      <c r="K41" s="38">
+        <v>40</v>
+      </c>
+      <c r="L41" s="39"/>
+      <c r="M41" s="38"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>10011</v>
+      </c>
+      <c r="B42" s="2">
+        <v>368</v>
+      </c>
+      <c r="C42" s="21">
+        <f>results20241225!D42</f>
+        <v>8.1</v>
+      </c>
+      <c r="D42" s="30">
+        <v>42.253</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="H42" s="2">
+        <v>10011</v>
+      </c>
+      <c r="I42" s="2">
+        <v>368</v>
+      </c>
+      <c r="J42" s="33">
+        <f>results20241225!J42</f>
+        <v>32.57421875</v>
+      </c>
+      <c r="K42" s="38">
+        <v>42</v>
+      </c>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2">
+        <v>74</v>
+      </c>
+      <c r="D45" s="2">
+        <v>49046</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2113</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3.5020000000000003E-2</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="32">
+        <v>49046</v>
+      </c>
+      <c r="K45" s="37">
+        <v>2113</v>
+      </c>
+      <c r="L45" s="37">
+        <v>74</v>
+      </c>
+      <c r="M45" s="37">
+        <v>3.5020000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>100</v>
+      </c>
+      <c r="B47" s="2">
+        <v>64</v>
+      </c>
+      <c r="C47" s="21">
+        <f>results20241225!D47</f>
+        <v>1.41</v>
+      </c>
+      <c r="D47" s="29">
+        <v>206.13200000000001</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="H47" s="2">
+        <v>100</v>
+      </c>
+      <c r="I47" s="2">
+        <v>64</v>
+      </c>
+      <c r="J47" s="33">
+        <f>results20241225!J47</f>
+        <v>14.9375</v>
+      </c>
+      <c r="K47" s="38">
+        <v>742</v>
+      </c>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B48" s="2">
+        <v>511</v>
+      </c>
+      <c r="C48" s="21">
+        <f>results20241225!D48</f>
+        <v>1.76</v>
+      </c>
+      <c r="D48" s="30">
+        <v>270.68900000000002</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="26"/>
+      <c r="H48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="2">
+        <v>511</v>
+      </c>
+      <c r="J48" s="33">
+        <f>results20241225!J48</f>
+        <v>32.9375</v>
+      </c>
+      <c r="K48" s="38">
+        <v>742</v>
+      </c>
+      <c r="L48" s="39"/>
+      <c r="M48" s="38"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2444</v>
+      </c>
+      <c r="C49" s="21">
+        <f>results20241225!D49</f>
+        <v>10.7</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="H49" s="2">
+        <v>10002</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2444</v>
+      </c>
+      <c r="J49" s="33">
+        <f>results20241225!J49</f>
+        <v>231.99609375</v>
+      </c>
+      <c r="K49" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>49046</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2089</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2.4639999999999999E-2</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" s="32">
+        <v>49046</v>
+      </c>
+      <c r="K52" s="37">
+        <v>2089</v>
+      </c>
+      <c r="L52" s="37">
+        <v>51.5</v>
+      </c>
+      <c r="M52" s="37">
+        <v>2.4639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>101</v>
+      </c>
+      <c r="B54" s="2">
+        <v>49</v>
+      </c>
+      <c r="C54" s="21">
+        <f>results20241225!D54</f>
+        <v>1.04</v>
+      </c>
+      <c r="D54" s="29">
+        <v>101.15</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="H54" s="2">
+        <v>101</v>
+      </c>
+      <c r="I54" s="2">
+        <v>49</v>
+      </c>
+      <c r="J54" s="33">
+        <f>results20241225!J54</f>
+        <v>15.171875</v>
+      </c>
+      <c r="K54" s="38">
+        <v>553</v>
+      </c>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B55" s="2">
+        <v>356</v>
+      </c>
+      <c r="C55" s="21">
+        <f>results20241225!D55</f>
+        <v>1.51</v>
+      </c>
+      <c r="D55" s="30">
+        <v>119.691</v>
+      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="26"/>
+      <c r="H55" s="2">
+        <v>1003</v>
+      </c>
+      <c r="I55" s="2">
+        <v>356</v>
+      </c>
+      <c r="J55" s="33">
+        <f>results20241225!J55</f>
+        <v>32.5390625</v>
+      </c>
+      <c r="K55" s="38">
+        <v>571</v>
+      </c>
+      <c r="L55" s="39"/>
+      <c r="M55" s="38"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1286</v>
+      </c>
+      <c r="C56" s="21">
+        <f>results20241225!D56</f>
+        <v>11.85</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="H56" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1286</v>
+      </c>
+      <c r="J56" s="33">
+        <f>results20241225!J56</f>
+        <v>218.91796875</v>
+      </c>
+      <c r="K56" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E59" s="2">
+        <v>871</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59" s="32">
+        <v>100000</v>
+      </c>
+      <c r="K59" s="37">
+        <v>871</v>
+      </c>
+      <c r="L59" s="37">
+        <v>11.1</v>
+      </c>
+      <c r="M59" s="37">
+        <v>1.2749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="H60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>100</v>
+      </c>
+      <c r="B61" s="2">
+        <v>97</v>
+      </c>
+      <c r="C61" s="21">
+        <f>results20241225!D61</f>
+        <v>0.62</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="H61" s="2">
+        <v>100</v>
+      </c>
+      <c r="I61" s="2">
+        <v>97</v>
+      </c>
+      <c r="J61" s="33">
+        <f>results20241225!J61</f>
+        <v>16.578125</v>
+      </c>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B62" s="2">
+        <v>865</v>
+      </c>
+      <c r="C62" s="21">
+        <f>results20241225!D62</f>
+        <v>2.02</v>
+      </c>
+      <c r="D62" s="30"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="26"/>
+      <c r="H62" s="2">
+        <v>1001</v>
+      </c>
+      <c r="I62" s="2">
+        <v>865</v>
+      </c>
+      <c r="J62" s="33">
+        <f>results20241225!J62</f>
+        <v>34.80078125</v>
+      </c>
+      <c r="K62" s="38"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="38"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>10074</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2117</v>
+      </c>
+      <c r="C63" s="21">
+        <f>results20241225!D63</f>
+        <v>14.34</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="H63" s="2">
+        <v>10074</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2117</v>
+      </c>
+      <c r="J63" s="33">
+        <f>results20241225!J63</f>
+        <v>372.75</v>
+      </c>
+      <c r="K63" s="38"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="32">
+        <v>100000</v>
+      </c>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>100</v>
+      </c>
+      <c r="B68" s="2">
+        <v>98</v>
+      </c>
+      <c r="C68" s="21">
+        <f>results20241225!D68</f>
+        <v>1.83</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="H68" s="2">
+        <v>100</v>
+      </c>
+      <c r="I68" s="2">
+        <v>98</v>
+      </c>
+      <c r="J68" s="33">
+        <f>results20241225!J68</f>
+        <v>17.19140625</v>
+      </c>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B69" s="2">
+        <v>660</v>
+      </c>
+      <c r="C69" s="21">
+        <f>results20241225!D69</f>
+        <v>3.29</v>
+      </c>
+      <c r="D69" s="30"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="26"/>
+      <c r="H69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I69" s="2">
+        <v>660</v>
+      </c>
+      <c r="J69" s="33">
+        <f>results20241225!J69</f>
+        <v>29.078125</v>
+      </c>
+      <c r="K69" s="38"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="38"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>10018</v>
+      </c>
+      <c r="B70" s="2">
+        <v>953</v>
+      </c>
+      <c r="C70" s="21">
+        <f>results20241225!D70</f>
+        <v>20.53</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="H70" s="2">
+        <v>10018</v>
+      </c>
+      <c r="I70" s="2">
+        <v>953</v>
+      </c>
+      <c r="J70" s="33">
+        <f>results20241225!J70</f>
+        <v>347.10546875</v>
+      </c>
+      <c r="K70" s="38"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="3">
+        <v>18.12</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3587</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2160</v>
+      </c>
+      <c r="F73" s="4">
+        <v>8.3876000000000003E-3</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J73" s="32">
+        <v>3587</v>
+      </c>
+      <c r="K73" s="37">
+        <v>2160</v>
+      </c>
+      <c r="L73" s="37">
+        <v>18.12</v>
+      </c>
+      <c r="M73" s="37">
+        <v>8.3876000000000003E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>101</v>
+      </c>
+      <c r="B75" s="2">
+        <v>69</v>
+      </c>
+      <c r="C75" s="21">
+        <f>results20241225!D75</f>
+        <v>0.55365228652954102</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="H75" s="2">
+        <v>101</v>
+      </c>
+      <c r="I75" s="2">
+        <v>69</v>
+      </c>
+      <c r="J75" s="33">
+        <f>results20241225!J75</f>
+        <v>11.2421875</v>
+      </c>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B76" s="2">
+        <v>143</v>
+      </c>
+      <c r="C76" s="21">
+        <f>results20241225!D76</f>
+        <v>2.4180223941802899</v>
+      </c>
+      <c r="D76" s="30"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="26"/>
+      <c r="H76" s="2">
+        <v>1022</v>
+      </c>
+      <c r="I76" s="2">
+        <v>143</v>
+      </c>
+      <c r="J76" s="33">
+        <f>results20241225!J76</f>
+        <v>12.7890625</v>
+      </c>
+      <c r="K76" s="38"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="38"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>10540</v>
+      </c>
+      <c r="B77" s="2">
+        <v>168</v>
+      </c>
+      <c r="C77" s="21">
+        <f>results20241225!D77</f>
+        <v>13.807211875915501</v>
+      </c>
+      <c r="D77" s="30"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="H77" s="2">
+        <v>10540</v>
+      </c>
+      <c r="I77" s="2">
+        <v>168</v>
+      </c>
+      <c r="J77" s="33">
+        <f>results20241225!J77</f>
+        <v>30.828125</v>
+      </c>
+      <c r="K77" s="38"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D80" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E80" s="2">
+        <v>20</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0.80584</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J80" s="32">
+        <v>100000</v>
+      </c>
+      <c r="K80" s="37">
+        <v>20</v>
+      </c>
+      <c r="L80" s="37">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="M80" s="37">
+        <v>0.80584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J81" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="L81" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>100</v>
+      </c>
+      <c r="B82" s="2">
+        <v>91</v>
+      </c>
+      <c r="C82" s="21">
+        <f>results20241225!D82</f>
+        <v>0.96733808517455999</v>
+      </c>
+      <c r="D82" s="29"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="H82" s="2">
+        <v>100</v>
+      </c>
+      <c r="I82" s="2">
+        <v>91</v>
+      </c>
+      <c r="J82" s="33">
+        <f>results20241225!J82</f>
+        <v>13.9140625</v>
+      </c>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B83" s="2">
+        <v>523</v>
+      </c>
+      <c r="C83" s="21">
+        <f>results20241225!D83</f>
+        <v>1.1073670387268</v>
+      </c>
+      <c r="D83" s="30"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="26"/>
+      <c r="H83" s="2">
+        <v>1003</v>
+      </c>
+      <c r="I83" s="2">
+        <v>523</v>
+      </c>
+      <c r="J83" s="33">
+        <f>results20241225!J83</f>
+        <v>24.8984375</v>
+      </c>
+      <c r="K83" s="38"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="38"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>10034</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1581</v>
+      </c>
+      <c r="C84" s="21">
+        <f>results20241225!D84</f>
+        <v>8.48066902160644</v>
+      </c>
+      <c r="D84" s="30"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="H84" s="2">
+        <v>10034</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1581</v>
+      </c>
+      <c r="J84" s="33">
+        <f>results20241225!J84</f>
+        <v>80.9609375</v>
+      </c>
+      <c r="K84" s="38"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J15:M15 C15:F15 C29:F29 C36:F36 C43:F43 C50:F50 C57:F57 C64:F64 C71:F71 C78:F78 C8:F8 J22 C22 C5:C7 E5:F7">
+    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:F14">
+    <cfRule type="cellIs" dxfId="52" priority="68" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:F28">
+    <cfRule type="cellIs" dxfId="51" priority="67" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:F34 E35:F35">
+    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:F42">
+    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:F48 E49:F49">
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:F55 E56:F56">
+    <cfRule type="cellIs" dxfId="47" priority="63" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:F63">
+    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68:F70">
+    <cfRule type="cellIs" dxfId="45" priority="61" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:F77">
+    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:F84">
+    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:M14">
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:M8 J15:M15 J29:M29 J36:M36 J43:M43 J50:M50 J57:M57 J64:M64 J71:M71 J78:M78 J22:M22 K12:M14 K19:M21 K5:M7">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:M27 L28:M28">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:M34 L35:M35">
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:M42">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:M48 L49:M49">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:M55 L56:M56">
+    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:M63">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:M70">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75:M77">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K82:M84">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C28">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C35">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C42">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:C49">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:C56">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C70">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75:C77">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C84">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J7">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:J14">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J21">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J28">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:J35">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:J42">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:J49">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:J56">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61:J63">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:J70">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75:J77">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82:J84">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Python/datasets/Experiments/output/results20241230.xlsx
+++ b/Python/datasets/Experiments/output/results20241230.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0510C6DE-9E94-4BEA-B39D-CE29FF616119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BEDECA-5C69-4BD8-9F0C-3EB8B9C8597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6035C6A1-F9DE-48BD-AD3B-5A2CA49F8B6B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="50">
   <si>
     <t>Dataset</t>
   </si>
@@ -169,46 +169,31 @@
     <t>BTK</t>
   </si>
   <si>
-    <t>Read Dataset Time: 4.577 Seconds</t>
-  </si>
-  <si>
-    <t>TB-Tree construction Time: 60.209 Seconds</t>
-  </si>
-  <si>
-    <t>B-List construction Time: 3.755 Seconds</t>
-  </si>
-  <si>
-    <t>FI mining Time: 174.747 Seconds</t>
-  </si>
-  <si>
-    <t>Total Execution Time: 243.287 Seconds</t>
-  </si>
-  <si>
-    <t>FIM found:100</t>
-  </si>
-  <si>
-    <t>Absolute minSup:278848</t>
-  </si>
-  <si>
-    <t>Relative minSup:0.8196999850080692</t>
-  </si>
-  <si>
-    <t>Max Memory:2525360128</t>
-  </si>
-  <si>
     <t>Top K</t>
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>negFIN</t>
+  </si>
+  <si>
+    <t>webdocs</t>
+  </si>
+  <si>
+    <t>1000+++</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -607,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -737,8 +722,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -781,8 +803,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -804,83 +827,86 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="18" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="17" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="17" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="17" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="40" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Έμφαση1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Έμφαση2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Έμφαση3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -916,6 +942,7 @@
     <cellStyle name="Κακό" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Καλό" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Κόμμα" xfId="42" builtinId="3"/>
     <cellStyle name="Ουδέτερο" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Προειδοποιητικό κείμενο" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Σημείωση" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -924,57 +951,7 @@
     <cellStyle name="Τίτλος" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Υπολογισμός" xfId="11" builtinId="22" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1795,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6786672-0DA8-4A5B-8DAA-4F276EA38086}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D35"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="S74" sqref="S74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,20 +1785,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1859,10 +1836,10 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="30">
         <v>990002</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="30">
         <v>41270</v>
       </c>
       <c r="D3" s="2">
@@ -1875,15 +1852,19 @@
         <v>12</v>
       </c>
       <c r="H3" s="2">
+        <f>B3</f>
         <v>990002</v>
       </c>
       <c r="I3" s="2">
+        <f t="shared" ref="I3:K3" si="0">C3</f>
         <v>41270</v>
       </c>
       <c r="J3" s="2">
+        <f t="shared" si="0"/>
         <v>8.1</v>
       </c>
       <c r="K3" s="2">
+        <f t="shared" si="0"/>
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
@@ -1936,6 +1917,7 @@
         <v>13.81</v>
       </c>
       <c r="G5" s="1">
+        <f>A5</f>
         <v>102</v>
       </c>
       <c r="H5" s="16">
@@ -1968,6 +1950,7 @@
         <v>139.04</v>
       </c>
       <c r="G6" s="1">
+        <f t="shared" ref="G6:G7" si="1">A6</f>
         <v>1001</v>
       </c>
       <c r="H6" s="16">
@@ -2000,6 +1983,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="1">
+        <f t="shared" si="1"/>
         <v>10007</v>
       </c>
       <c r="H7" s="16">
@@ -2051,10 +2035,10 @@
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="30">
         <v>88162</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="30">
         <v>16471</v>
       </c>
       <c r="D10" s="2">
@@ -2067,15 +2051,19 @@
         <v>16</v>
       </c>
       <c r="H10" s="2">
+        <f>B10</f>
         <v>88162</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" ref="I10" si="2">C10</f>
         <v>16471</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" ref="J10" si="3">D10</f>
         <v>11.3</v>
       </c>
       <c r="K10" s="2">
+        <f t="shared" ref="K10" si="4">E10</f>
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
@@ -2128,6 +2116,7 @@
         <v>0.99</v>
       </c>
       <c r="G12" s="1">
+        <f t="shared" ref="G12:G14" si="5">A12</f>
         <v>100</v>
       </c>
       <c r="H12" s="16">
@@ -2160,6 +2149,7 @@
         <v>11.67</v>
       </c>
       <c r="G13" s="1">
+        <f t="shared" si="5"/>
         <v>1001</v>
       </c>
       <c r="H13" s="16">
@@ -2193,6 +2183,7 @@
         <v>162.19999999999999</v>
       </c>
       <c r="G14" s="1">
+        <f t="shared" si="5"/>
         <v>10154</v>
       </c>
       <c r="H14" s="16">
@@ -2249,10 +2240,10 @@
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="30">
         <v>340183</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="30">
         <v>469</v>
       </c>
       <c r="D17" s="2">
@@ -2265,15 +2256,19 @@
         <v>5</v>
       </c>
       <c r="H17" s="2">
+        <f>B17</f>
         <v>340183</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" ref="I17" si="6">C17</f>
         <v>469</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" ref="J17" si="7">D17</f>
         <v>34.799999999999997</v>
       </c>
       <c r="K17" s="2">
+        <f t="shared" ref="K17" si="8">E17</f>
         <v>7.4219999999999994E-2</v>
       </c>
     </row>
@@ -2326,6 +2321,7 @@
         <v>17.21</v>
       </c>
       <c r="G19" s="1">
+        <f t="shared" ref="G19:G82" si="9">A19</f>
         <v>100</v>
       </c>
       <c r="H19" s="16">
@@ -2358,6 +2354,7 @@
         <v>242.96</v>
       </c>
       <c r="G20" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
       <c r="H20" s="16">
@@ -2390,6 +2387,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="1">
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="H21" s="16">
@@ -2444,10 +2442,10 @@
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="30">
         <v>3196</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="30">
         <v>75</v>
       </c>
       <c r="D24" s="2">
@@ -2460,15 +2458,19 @@
         <v>10</v>
       </c>
       <c r="H24" s="2">
+        <f>B24</f>
         <v>3196</v>
       </c>
       <c r="I24" s="2">
+        <f t="shared" ref="I24" si="10">C24</f>
         <v>75</v>
       </c>
       <c r="J24" s="2">
+        <f t="shared" ref="J24" si="11">D24</f>
         <v>37</v>
       </c>
       <c r="K24" s="2">
+        <f t="shared" ref="K24" si="12">E24</f>
         <v>0.49332999999999999</v>
       </c>
       <c r="M24" t="s">
@@ -2527,6 +2529,7 @@
         <v>0.11</v>
       </c>
       <c r="G26" s="1">
+        <f>A26</f>
         <v>102</v>
       </c>
       <c r="H26" s="16">
@@ -2562,6 +2565,7 @@
         <v>1.18</v>
       </c>
       <c r="G27" s="1">
+        <f t="shared" ref="G27:G28" si="13">A27</f>
         <v>1001</v>
       </c>
       <c r="H27" s="16">
@@ -2597,6 +2601,7 @@
         <v>21.89</v>
       </c>
       <c r="G28" s="1">
+        <f t="shared" si="13"/>
         <v>10028</v>
       </c>
       <c r="H28" s="16">
@@ -2659,10 +2664,10 @@
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="30">
         <v>67557</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="30">
         <v>129</v>
       </c>
       <c r="D31" s="2">
@@ -2675,15 +2680,19 @@
         <v>11</v>
       </c>
       <c r="H31" s="2">
+        <f>B31</f>
         <v>67557</v>
       </c>
       <c r="I31" s="2">
+        <f t="shared" ref="I31" si="14">C31</f>
         <v>129</v>
       </c>
       <c r="J31" s="2">
+        <f t="shared" ref="J31" si="15">D31</f>
         <v>43</v>
       </c>
       <c r="K31" s="2">
+        <f t="shared" ref="K31" si="16">E31</f>
         <v>0.33333000000000002</v>
       </c>
       <c r="M31" t="s">
@@ -2742,6 +2751,7 @@
         <v>2.71</v>
       </c>
       <c r="G33" s="1">
+        <f>A33</f>
         <v>100</v>
       </c>
       <c r="H33" s="16">
@@ -2777,6 +2787,7 @@
         <v>30.34</v>
       </c>
       <c r="G34" s="1">
+        <f t="shared" ref="G34:G35" si="17">A34</f>
         <v>1003</v>
       </c>
       <c r="H34" s="16">
@@ -2812,6 +2823,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="1">
+        <f t="shared" si="17"/>
         <v>10015</v>
       </c>
       <c r="H35" s="16">
@@ -2874,10 +2886,10 @@
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="30">
         <v>8124</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="30">
         <v>119</v>
       </c>
       <c r="D38" s="2">
@@ -2890,15 +2902,19 @@
         <v>13</v>
       </c>
       <c r="H38" s="2">
+        <f>B38</f>
         <v>8124</v>
       </c>
       <c r="I38" s="2">
+        <f t="shared" ref="I38" si="18">C38</f>
         <v>119</v>
       </c>
       <c r="J38" s="2">
+        <f t="shared" ref="J38" si="19">D38</f>
         <v>23</v>
       </c>
       <c r="K38" s="2">
+        <f t="shared" ref="K38" si="20">E38</f>
         <v>0.12328</v>
       </c>
       <c r="M38" t="s">
@@ -2957,6 +2973,7 @@
         <v>0.34</v>
       </c>
       <c r="G40" s="1">
+        <f>A40</f>
         <v>106</v>
       </c>
       <c r="H40" s="16">
@@ -2989,6 +3006,7 @@
         <v>2.63</v>
       </c>
       <c r="G41" s="1">
+        <f t="shared" ref="G41:G42" si="21">A41</f>
         <v>1008</v>
       </c>
       <c r="H41" s="16">
@@ -3021,6 +3039,7 @@
         <v>25.81</v>
       </c>
       <c r="G42" s="1">
+        <f t="shared" si="21"/>
         <v>10011</v>
       </c>
       <c r="H42" s="16">
@@ -3072,10 +3091,10 @@
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="30">
         <v>49046</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="30">
         <v>2113</v>
       </c>
       <c r="D45" s="2">
@@ -3088,15 +3107,19 @@
         <v>14</v>
       </c>
       <c r="H45" s="2">
+        <f>B45</f>
         <v>49046</v>
       </c>
       <c r="I45" s="2">
+        <f t="shared" ref="I45" si="22">C45</f>
         <v>2113</v>
       </c>
       <c r="J45" s="2">
+        <f t="shared" ref="J45" si="23">D45</f>
         <v>74</v>
       </c>
       <c r="K45" s="2">
+        <f t="shared" ref="K45" si="24">E45</f>
         <v>3.5020000000000003E-2</v>
       </c>
     </row>
@@ -3149,6 +3172,7 @@
         <v>2.39</v>
       </c>
       <c r="G47" s="1">
+        <f>A47</f>
         <v>100</v>
       </c>
       <c r="H47" s="16">
@@ -3181,6 +3205,7 @@
         <v>29.5</v>
       </c>
       <c r="G48" s="1">
+        <f t="shared" ref="G48:G49" si="25">A48</f>
         <v>1000</v>
       </c>
       <c r="H48" s="16">
@@ -3213,6 +3238,7 @@
         <v>22</v>
       </c>
       <c r="G49" s="1">
+        <f t="shared" si="25"/>
         <v>10002</v>
       </c>
       <c r="H49" s="16">
@@ -3264,10 +3290,10 @@
       <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="30">
         <v>49046</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="30">
         <v>2089</v>
       </c>
       <c r="D52" s="2">
@@ -3280,15 +3306,19 @@
         <v>15</v>
       </c>
       <c r="H52" s="2">
+        <f>B52</f>
         <v>49046</v>
       </c>
       <c r="I52" s="2">
+        <f t="shared" ref="I52" si="26">C52</f>
         <v>2089</v>
       </c>
       <c r="J52" s="2">
+        <f t="shared" ref="J52" si="27">D52</f>
         <v>51.5</v>
       </c>
       <c r="K52" s="2">
+        <f t="shared" ref="K52" si="28">E52</f>
         <v>2.4639999999999999E-2</v>
       </c>
     </row>
@@ -3341,6 +3371,7 @@
         <v>2.59</v>
       </c>
       <c r="G54" s="1">
+        <f>A54</f>
         <v>101</v>
       </c>
       <c r="H54" s="16">
@@ -3373,6 +3404,7 @@
         <v>27.86</v>
       </c>
       <c r="G55" s="1">
+        <f t="shared" ref="G55:G56" si="29">A55</f>
         <v>1003</v>
       </c>
       <c r="H55" s="16">
@@ -3405,6 +3437,7 @@
         <v>22</v>
       </c>
       <c r="G56" s="1">
+        <f t="shared" si="29"/>
         <v>10000</v>
       </c>
       <c r="H56" s="16">
@@ -3456,10 +3489,10 @@
       <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="30">
         <v>100000</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="30">
         <v>871</v>
       </c>
       <c r="D59" s="2">
@@ -3472,15 +3505,19 @@
         <v>17</v>
       </c>
       <c r="H59" s="2">
+        <f>B59</f>
         <v>100000</v>
       </c>
       <c r="I59" s="2">
+        <f t="shared" ref="I59" si="30">C59</f>
         <v>871</v>
       </c>
       <c r="J59" s="2">
+        <f t="shared" ref="J59" si="31">D59</f>
         <v>11.1</v>
       </c>
       <c r="K59" s="2">
+        <f t="shared" ref="K59" si="32">E59</f>
         <v>1.2749999999999999E-2</v>
       </c>
     </row>
@@ -3533,6 +3570,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="1">
+        <f>A61</f>
         <v>100</v>
       </c>
       <c r="H61" s="16">
@@ -3565,6 +3603,7 @@
         <v>25.81</v>
       </c>
       <c r="G62" s="1">
+        <f t="shared" ref="G62:G63" si="33">A62</f>
         <v>1001</v>
       </c>
       <c r="H62" s="16">
@@ -3582,7 +3621,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>10074</v>
+        <v>10075</v>
       </c>
       <c r="B63" s="8">
         <v>16.28</v>
@@ -3591,13 +3630,14 @@
         <v>135.63999999999999</v>
       </c>
       <c r="D63" s="6">
-        <v>14.34</v>
+        <v>12.939</v>
       </c>
       <c r="E63" s="9">
         <v>52.47</v>
       </c>
       <c r="G63" s="1">
-        <v>10074</v>
+        <f t="shared" si="33"/>
+        <v>10075</v>
       </c>
       <c r="H63" s="16">
         <v>377.7734375</v>
@@ -3606,7 +3646,7 @@
         <v>882.16015625</v>
       </c>
       <c r="J63" s="16">
-        <v>372.75</v>
+        <v>391</v>
       </c>
       <c r="K63" s="16">
         <v>44.81640625</v>
@@ -3648,21 +3688,37 @@
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="30">
         <v>100000</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="C66" s="30">
+        <v>943</v>
+      </c>
+      <c r="D66" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="E66" s="2">
+        <v>4.3060000000000001E-2</v>
+      </c>
       <c r="G66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H66" s="2">
+        <f>B66</f>
         <v>100000</v>
       </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="I66" s="2">
+        <f t="shared" ref="I66" si="34">C66</f>
+        <v>943</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" ref="J66" si="35">D66</f>
+        <v>40.6</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" ref="K66" si="36">E66</f>
+        <v>4.3060000000000001E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
@@ -3707,12 +3763,13 @@
         <v>8.43</v>
       </c>
       <c r="D68" s="7">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="E68" s="11">
         <v>6.84</v>
       </c>
       <c r="G68" s="1">
+        <f>A68</f>
         <v>100</v>
       </c>
       <c r="H68" s="16">
@@ -3745,6 +3802,7 @@
         <v>87.28</v>
       </c>
       <c r="G69" s="1">
+        <f t="shared" ref="G69:G70" si="37">A69</f>
         <v>1000</v>
       </c>
       <c r="H69" s="16">
@@ -3771,12 +3829,13 @@
         <v>22</v>
       </c>
       <c r="D70" s="5">
-        <v>20.53</v>
+        <v>19.78</v>
       </c>
       <c r="E70" s="11">
         <v>251.13</v>
       </c>
       <c r="G70" s="1">
+        <f t="shared" si="37"/>
         <v>10018</v>
       </c>
       <c r="H70" s="16">
@@ -3828,10 +3887,10 @@
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="30">
         <v>3587</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="30">
         <v>2160</v>
       </c>
       <c r="D73" s="3">
@@ -3844,15 +3903,19 @@
         <v>20</v>
       </c>
       <c r="H73" s="2">
+        <f>B73</f>
         <v>3587</v>
       </c>
       <c r="I73" s="2">
+        <f t="shared" ref="I73" si="38">C73</f>
         <v>2160</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="2">
+        <f t="shared" ref="J73" si="39">D73</f>
         <v>18.12</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="2">
+        <f t="shared" ref="K73" si="40">E73</f>
         <v>8.3876000000000003E-3</v>
       </c>
     </row>
@@ -3890,98 +3953,101 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>101</v>
-      </c>
-      <c r="B75" s="9">
-        <v>0.51950383186340299</v>
-      </c>
-      <c r="C75" s="6">
-        <v>0.200320243835449</v>
+        <v>100</v>
+      </c>
+      <c r="B75" s="8">
+        <v>0.124</v>
+      </c>
+      <c r="C75" s="9">
+        <v>0.13</v>
       </c>
       <c r="D75" s="10">
-        <v>0.55365228652954102</v>
-      </c>
-      <c r="E75" s="8">
-        <v>0.21886396408080999</v>
+        <v>0.309</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0.106</v>
       </c>
       <c r="G75" s="1">
-        <v>101</v>
+        <f>A75</f>
+        <v>100</v>
       </c>
       <c r="H75" s="16">
-        <v>11.23828125</v>
+        <v>12</v>
       </c>
       <c r="I75" s="16">
-        <v>11.1953125</v>
+        <v>12</v>
       </c>
       <c r="J75" s="16">
-        <v>11.2421875</v>
+        <v>12</v>
       </c>
       <c r="K75" s="16">
-        <v>11.07421875</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>1022</v>
-      </c>
-      <c r="B76" s="6">
-        <v>1.13150215148925</v>
-      </c>
-      <c r="C76" s="9">
-        <v>2.37897729873657</v>
-      </c>
-      <c r="D76" s="10">
-        <v>2.4180223941802899</v>
+        <v>1025</v>
+      </c>
+      <c r="B76" s="9">
+        <v>1.48</v>
+      </c>
+      <c r="C76" s="10">
+        <v>1.581</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0.62</v>
       </c>
       <c r="E76" s="8">
-        <v>1.70612168312072</v>
+        <v>1.054</v>
       </c>
       <c r="G76" s="1">
-        <v>1022</v>
+        <f t="shared" ref="G76:G77" si="41">A76</f>
+        <v>1025</v>
       </c>
       <c r="H76" s="16">
-        <v>12.84765625</v>
+        <v>14</v>
       </c>
       <c r="I76" s="16">
-        <v>13.44140625</v>
+        <v>14</v>
       </c>
       <c r="J76" s="16">
-        <v>12.7890625</v>
+        <v>14</v>
       </c>
       <c r="K76" s="16">
-        <v>11.74609375</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>10540</v>
+        <v>11257</v>
       </c>
       <c r="B77" s="8">
-        <v>16.723675251006998</v>
+        <v>8.6359999999999992</v>
       </c>
       <c r="C77" s="10">
-        <v>25.401316881179799</v>
+        <v>14.853999999999999</v>
       </c>
       <c r="D77" s="6">
-        <v>13.807211875915501</v>
+        <v>8.391</v>
       </c>
       <c r="E77" s="9">
-        <v>19.714059352874699</v>
+        <v>10.43</v>
       </c>
       <c r="G77" s="1">
-        <v>10540</v>
+        <f t="shared" si="41"/>
+        <v>11257</v>
       </c>
       <c r="H77" s="16">
-        <v>32.359375</v>
+        <v>36</v>
       </c>
       <c r="I77" s="16">
-        <v>79.7421875</v>
+        <v>99</v>
       </c>
       <c r="J77" s="16">
-        <v>30.828125</v>
+        <v>33</v>
       </c>
       <c r="K77" s="16">
-        <v>21.77734375</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4020,10 +4086,10 @@
       <c r="A80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="30">
         <v>100000</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="30">
         <v>20</v>
       </c>
       <c r="D80" s="3">
@@ -4036,15 +4102,19 @@
         <v>19</v>
       </c>
       <c r="H80" s="2">
+        <f>B80</f>
         <v>100000</v>
       </c>
       <c r="I80" s="2">
+        <f t="shared" ref="I80" si="42">C80</f>
         <v>20</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="2">
+        <f t="shared" ref="J80" si="43">D80</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="2">
+        <f t="shared" ref="K80" si="44">E80</f>
         <v>0.80584</v>
       </c>
     </row>
@@ -4097,6 +4167,7 @@
         <v>4.9966049194335902</v>
       </c>
       <c r="G82" s="1">
+        <f>A82</f>
         <v>100</v>
       </c>
       <c r="H82" s="16">
@@ -4129,6 +4200,7 @@
         <v>31.1707007884979</v>
       </c>
       <c r="G83" s="1">
+        <f t="shared" ref="G83:G84" si="45">A83</f>
         <v>1003</v>
       </c>
       <c r="H83" s="16">
@@ -4161,6 +4233,7 @@
         <v>220.480873584747</v>
       </c>
       <c r="G84" s="1">
+        <f t="shared" si="45"/>
         <v>10034</v>
       </c>
       <c r="H84" s="16">
@@ -4175,6 +4248,169 @@
       <c r="K84" s="16">
         <v>1684.7109375</v>
       </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="30">
+        <v>1692082</v>
+      </c>
+      <c r="C87" s="30">
+        <v>5267656</v>
+      </c>
+      <c r="D87" s="3">
+        <v>177.2</v>
+      </c>
+      <c r="E87" s="49">
+        <v>3.3645000000000001E-5</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="2">
+        <f>B87</f>
+        <v>1692082</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" ref="I87" si="46">C87</f>
+        <v>5267656</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" ref="J87" si="47">D87</f>
+        <v>177.2</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" ref="K87" si="48">E87</f>
+        <v>3.3645000000000001E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>100</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="12">
+        <v>323.22000000000003</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="G89" s="1">
+        <f>A89</f>
+        <v>100</v>
+      </c>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16">
+        <v>1512</v>
+      </c>
+      <c r="K89" s="16"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="10">
+        <v>665.3</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="G90" s="1">
+        <f t="shared" ref="G90:G91" si="49">A90</f>
+        <v>1000</v>
+      </c>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16">
+        <v>1934</v>
+      </c>
+      <c r="K90" s="16"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="G91" s="1">
+        <f t="shared" si="49"/>
+        <v>10000</v>
+      </c>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4182,6 +4418,35 @@
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:K7 H12:K14 H19:K21 H26:K28 H33:K35 H40:K42 H47:K49 H54:K56 H61:K63 H68:K70 H75:K77 H82:K84">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89:K90 H91:I91 K91">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+      <formula>"1000+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4200,10 +4465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F28AEF2-AE5E-4CBE-A1AE-68482664036D}">
-  <dimension ref="A1:Y84"/>
+  <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4213,79 +4478,118 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="H1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37" t="str">
+        <f>results20241225!B2</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D2" s="37" t="str">
+        <f>results20241225!C2</f>
+        <v>Items</v>
+      </c>
+      <c r="E2" s="37" t="str">
+        <f>results20241225!D2</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F2" s="37" t="str">
+        <f>results20241225!E2</f>
+        <v>density</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38" t="str">
+        <f>results20241225!B2</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K2" s="38" t="str">
+        <f>results20241225!C2</f>
+        <v>Items</v>
+      </c>
+      <c r="L2" s="38" t="str">
+        <f>results20241225!D2</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M2" s="38" t="str">
+        <f>results20241225!E2</f>
+        <v>density</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C3" s="37">
+        <f>results20241225!B3</f>
+        <v>990002</v>
+      </c>
+      <c r="D3" s="37">
+        <f>results20241225!C3</f>
+        <v>41270</v>
+      </c>
+      <c r="E3" s="37">
+        <f>results20241225!D3</f>
+        <v>8.1</v>
+      </c>
+      <c r="F3" s="37">
+        <f>results20241225!E3</f>
+        <v>1.9000000000000001E-4</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="J3" s="38">
+        <f>results20241225!B3</f>
+        <v>990002</v>
+      </c>
+      <c r="K3" s="38">
+        <f>results20241225!C3</f>
+        <v>41270</v>
+      </c>
+      <c r="L3" s="43">
+        <f>results20241225!D3</f>
+        <v>8.1</v>
+      </c>
+      <c r="M3" s="44">
+        <f>results20241225!E3</f>
+        <v>1.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
@@ -4293,193 +4597,230 @@
       <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f>results20241225!A5</f>
         <v>102</v>
       </c>
       <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <f>results20241225!D5</f>
         <v>11.41</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="H5" s="2">
+        <f>A5</f>
         <v>102</v>
       </c>
       <c r="I5" s="2">
+        <f>B5</f>
         <v>100</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="27">
         <f>results20241225!J5</f>
         <v>69.265625</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f>results20241225!A6</f>
         <v>1001</v>
       </c>
       <c r="B6" s="2">
         <v>917</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <f>results20241225!D6</f>
         <v>17.57</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="17"/>
       <c r="H6" s="2">
+        <f t="shared" ref="H6:H7" si="0">A6</f>
         <v>1001</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" ref="I6:I7" si="1">B6</f>
         <v>917</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="27">
         <f>results20241225!J6</f>
         <v>220.92578125</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="38"/>
-      <c r="O6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L6" s="32"/>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f>results20241225!A7</f>
         <v>10007</v>
       </c>
       <c r="B7" s="2">
         <v>3481</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <f>results20241225!D7</f>
         <v>144.38</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="H7" s="2">
+        <f t="shared" si="0"/>
         <v>10007</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="1"/>
         <v>3481</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="27">
         <f>results20241225!J7</f>
         <v>2652.66015625</v>
       </c>
-      <c r="K7" s="51" t="s">
+      <c r="K7" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="O7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="O8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="O9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C8" s="21"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="37" t="str">
+        <f>results20241225!B9</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D9" s="37" t="str">
+        <f>results20241225!C9</f>
+        <v>Items</v>
+      </c>
+      <c r="E9" s="37" t="str">
+        <f>results20241225!D9</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F9" s="37" t="str">
+        <f>results20241225!E9</f>
+        <v>density</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="38" t="str">
+        <f>results20241225!B9</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K9" s="38" t="str">
+        <f>results20241225!C9</f>
+        <v>Items</v>
+      </c>
+      <c r="L9" s="38" t="str">
+        <f>results20241225!D9</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M9" s="38" t="str">
+        <f>results20241225!E9</f>
+        <v>density</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C10" s="37">
+        <f>results20241225!B10</f>
+        <v>88162</v>
+      </c>
+      <c r="D10" s="37">
+        <f>results20241225!C10</f>
+        <v>16471</v>
+      </c>
+      <c r="E10" s="37">
+        <f>results20241225!D10</f>
+        <v>11.3</v>
+      </c>
+      <c r="F10" s="37">
+        <f>results20241225!E10</f>
+        <v>6.8999999999999997E-4</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="J10" s="38">
+        <f>results20241225!B10</f>
+        <v>88162</v>
+      </c>
+      <c r="K10" s="38">
+        <f>results20241225!C10</f>
+        <v>16471</v>
+      </c>
+      <c r="L10" s="43">
+        <f>results20241225!D10</f>
+        <v>11.3</v>
+      </c>
+      <c r="M10" s="44">
+        <f>results20241225!E10</f>
+        <v>6.8999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>43</v>
@@ -4493,157 +4834,226 @@
         <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f>results20241225!A12</f>
         <v>100</v>
       </c>
       <c r="B12" s="2">
         <v>98</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <f>results20241225!D12</f>
         <v>0.64</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="D12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="H12" s="2">
+        <f>A12</f>
         <v>100</v>
       </c>
       <c r="I12" s="2">
+        <f>B12</f>
         <v>98</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="27">
         <f>results20241225!J12</f>
         <v>20.8515625</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="K12" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f>results20241225!A13</f>
         <v>1001</v>
       </c>
       <c r="B13" s="2">
         <v>509</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <f>results20241225!D13</f>
         <v>1.7</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17"/>
       <c r="H13" s="2">
+        <f t="shared" ref="H13:I14" si="2">A13</f>
         <v>1001</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="2"/>
         <v>509</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="27">
         <f>results20241225!J13</f>
         <v>31.4609375</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="38"/>
+      <c r="K13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="32"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="13"/>
-      <c r="T13" s="49"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <f>results20241225!A14</f>
         <v>10154</v>
       </c>
       <c r="B14" s="2">
         <v>758</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="19">
         <f>results20241225!D14</f>
         <v>49.64</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="D14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="H14" s="2">
+        <f t="shared" si="2"/>
         <v>10154</v>
       </c>
       <c r="I14" s="2">
+        <f t="shared" si="2"/>
         <v>758</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="27">
         <f>results20241225!J14</f>
         <v>153.75</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="K14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C15" s="21"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C16" s="37" t="str">
+        <f>results20241225!B16</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D16" s="37" t="str">
+        <f>results20241225!C16</f>
+        <v>Items</v>
+      </c>
+      <c r="E16" s="37" t="str">
+        <f>results20241225!D16</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F16" s="37" t="str">
+        <f>results20241225!E16</f>
+        <v>density</v>
+      </c>
+      <c r="J16" s="38" t="str">
+        <f>results20241225!B16</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K16" s="38" t="str">
+        <f>results20241225!C16</f>
+        <v>Items</v>
+      </c>
+      <c r="L16" s="38" t="str">
+        <f>results20241225!D16</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M16" s="38" t="str">
+        <f>results20241225!E16</f>
+        <v>density</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C17" s="37">
+        <f>results20241225!B17</f>
+        <v>340183</v>
+      </c>
+      <c r="D17" s="37">
+        <f>results20241225!C17</f>
+        <v>469</v>
+      </c>
+      <c r="E17" s="37">
+        <f>results20241225!D17</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F17" s="37">
+        <f>results20241225!E17</f>
+        <v>7.4219999999999994E-2</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="J17" s="38">
+        <f>results20241225!B17</f>
+        <v>340183</v>
+      </c>
+      <c r="K17" s="38">
+        <f>results20241225!C17</f>
+        <v>469</v>
+      </c>
+      <c r="L17" s="43">
+        <f>results20241225!D17</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M17" s="44">
+        <f>results20241225!E17</f>
+        <v>7.4219999999999994E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>43</v>
@@ -4657,164 +5067,226 @@
         <v>21</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
-        <v>102</v>
-      </c>
-      <c r="B19" s="50">
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>results20241225!A19</f>
         <v>100</v>
       </c>
-      <c r="C19" s="21">
+      <c r="B19" s="40">
+        <v>100</v>
+      </c>
+      <c r="C19" s="19">
         <f>results20241225!D19</f>
         <v>9.26</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>243.19</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="H19" s="50">
-        <v>102</v>
-      </c>
-      <c r="I19" s="50">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="H19" s="2">
+        <f>A19</f>
         <v>100</v>
       </c>
-      <c r="J19" s="33">
+      <c r="I19" s="2">
+        <f>B19</f>
+        <v>100</v>
+      </c>
+      <c r="J19" s="27">
         <f>results20241225!J19</f>
         <v>29.07421875</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="31">
         <v>2525</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
-        <v>1001</v>
-      </c>
-      <c r="B20" s="50">
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>results20241225!A20</f>
+        <v>1000</v>
+      </c>
+      <c r="B20" s="40">
         <v>986</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <f>results20241225!D20</f>
         <v>10.19</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="H20" s="50">
-        <v>1001</v>
-      </c>
-      <c r="I20" s="50">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="H20" s="2">
+        <f t="shared" ref="H20:I21" si="3">A20</f>
+        <v>1000</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
         <v>986</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="27">
         <f>results20241225!J20</f>
         <v>127.6875</v>
       </c>
-      <c r="K20" s="51" t="s">
+      <c r="K20" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="38"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
-        <v>10007</v>
-      </c>
-      <c r="B21" s="50">
+      <c r="L20" s="32"/>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>results20241225!A21</f>
+        <v>10000</v>
+      </c>
+      <c r="B21" s="40">
         <v>9137</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="19">
         <f>results20241225!D21</f>
         <v>23.17</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="H21" s="50">
-        <v>10007</v>
-      </c>
-      <c r="I21" s="50">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="H21" s="2">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
         <v>9137</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="27">
         <f>results20241225!J21</f>
         <v>798.39453125</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C23" s="37" t="str">
+        <f>results20241225!B23</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D23" s="37" t="str">
+        <f>results20241225!C23</f>
+        <v>Items</v>
+      </c>
+      <c r="E23" s="37" t="str">
+        <f>results20241225!D23</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F23" s="37" t="str">
+        <f>results20241225!E23</f>
+        <v>density</v>
+      </c>
+      <c r="J23" s="38" t="str">
+        <f>results20241225!B23</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K23" s="38" t="str">
+        <f>results20241225!C23</f>
+        <v>Items</v>
+      </c>
+      <c r="L23" s="38" t="str">
+        <f>results20241225!D23</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M23" s="38" t="str">
+        <f>results20241225!E23</f>
+        <v>density</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C24" s="37">
+        <f>results20241225!B24</f>
+        <v>3196</v>
+      </c>
+      <c r="D24" s="37">
+        <f>results20241225!C24</f>
+        <v>75</v>
+      </c>
+      <c r="E24" s="37">
+        <f>results20241225!D24</f>
+        <v>37</v>
+      </c>
+      <c r="F24" s="37">
+        <f>results20241225!E24</f>
+        <v>0.49332999999999999</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="32"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="J24" s="38">
+        <f>results20241225!B24</f>
+        <v>3196</v>
+      </c>
+      <c r="K24" s="38">
+        <f>results20241225!C24</f>
+        <v>75</v>
+      </c>
+      <c r="L24" s="43">
+        <f>results20241225!D24</f>
+        <v>37</v>
+      </c>
+      <c r="M24" s="44">
+        <f>results20241225!E24</f>
+        <v>0.49332999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>43</v>
@@ -4828,171 +5300,222 @@
         <v>21</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="50">
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f>results20241225!A26</f>
         <v>102</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="40">
         <v>71</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="19">
         <f>results20241225!D26</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="19">
         <v>0.68</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="H26" s="50">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="H26" s="2">
+        <f>A26</f>
         <v>102</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="2">
+        <f>B26</f>
         <v>71</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="27">
         <f>results20241225!J26</f>
         <v>10.9765625</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="31">
         <v>38</v>
       </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f>results20241225!A27</f>
         <v>1001</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="40">
         <v>247</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="19">
         <f>results20241225!D27</f>
         <v>0.39</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="25">
         <v>4.2789999999999999</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="26"/>
-      <c r="H27" s="50">
+      <c r="E27" s="23"/>
+      <c r="F27" s="17"/>
+      <c r="H27" s="2">
+        <f t="shared" ref="H27:I28" si="4">A27</f>
         <v>1001</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="2">
+        <f t="shared" si="4"/>
         <v>247</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="27">
         <f>results20241225!J27</f>
         <v>13.1171875</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="31">
         <v>38</v>
       </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="38"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
+      <c r="L27" s="32"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f>results20241225!A28</f>
         <v>10028</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="40">
         <v>556</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="19">
         <f>results20241225!D28</f>
         <v>9.3800000000000008</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="H28" s="50">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="H28" s="2">
+        <f t="shared" si="4"/>
         <v>10028</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="2">
+        <f t="shared" si="4"/>
         <v>556</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="27">
         <f>results20241225!J28</f>
         <v>28.9375</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C30" s="37" t="str">
+        <f>results20241225!B30</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D30" s="37" t="str">
+        <f>results20241225!C30</f>
+        <v>Items</v>
+      </c>
+      <c r="E30" s="37" t="str">
+        <f>results20241225!D30</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F30" s="37" t="str">
+        <f>results20241225!E30</f>
+        <v>density</v>
+      </c>
+      <c r="J30" s="38" t="str">
+        <f>results20241225!B30</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K30" s="38" t="str">
+        <f>results20241225!C30</f>
+        <v>Items</v>
+      </c>
+      <c r="L30" s="38" t="str">
+        <f>results20241225!D30</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M30" s="38" t="str">
+        <f>results20241225!E30</f>
+        <v>density</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="2">
+        <v>45</v>
+      </c>
+      <c r="C31" s="37">
+        <f>results20241225!B31</f>
+        <v>67557</v>
+      </c>
+      <c r="D31" s="37">
+        <f>results20241225!C31</f>
+        <v>129</v>
+      </c>
+      <c r="E31" s="37">
+        <f>results20241225!D31</f>
         <v>43</v>
       </c>
-      <c r="D31" s="2">
-        <v>67557</v>
-      </c>
-      <c r="E31" s="2">
-        <v>129</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="F31" s="37">
+        <f>results20241225!E31</f>
         <v>0.33333000000000002</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J31" s="32">
+        <v>45</v>
+      </c>
+      <c r="J31" s="38">
+        <f>results20241225!B31</f>
         <v>67557</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="38">
+        <f>results20241225!C31</f>
         <v>129</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="43">
+        <f>results20241225!D31</f>
         <v>43</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="44">
+        <f>results20241225!E31</f>
         <v>0.33333000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>43</v>
@@ -5006,7 +5529,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>43</v>
@@ -5019,149 +5542,196 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <f>results20241225!A33</f>
         <v>100</v>
       </c>
       <c r="B33" s="2">
         <v>76</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="19">
         <f>results20241225!D33</f>
         <v>1.33</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="19">
         <v>20.094000000000001</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
       <c r="H33" s="2">
+        <f>A33</f>
         <v>100</v>
       </c>
       <c r="I33" s="2">
+        <f>B33</f>
         <v>76</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="27">
         <f>results20241225!J33</f>
         <v>15.76171875</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="31">
         <v>456</v>
       </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f>results20241225!A34</f>
         <v>1003</v>
       </c>
       <c r="B34" s="2">
         <v>423</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="19">
         <f>results20241225!D34</f>
         <v>1.48</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="25">
         <v>34.046999999999997</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="26"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17"/>
       <c r="H34" s="2">
+        <f t="shared" ref="H34:I35" si="5">A34</f>
         <v>1003</v>
       </c>
       <c r="I34" s="2">
+        <f t="shared" si="5"/>
         <v>423</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="27">
         <f>results20241225!J34</f>
         <v>31.82421875</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="31">
         <v>456</v>
       </c>
-      <c r="L34" s="39"/>
-      <c r="M34" s="38"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="31"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <f>results20241225!A35</f>
         <v>10015</v>
       </c>
       <c r="B35" s="2">
         <v>1605</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="19">
         <f>results20241225!D35</f>
         <v>11.64</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
       <c r="H35" s="2">
+        <f t="shared" si="5"/>
         <v>10015</v>
       </c>
       <c r="I35" s="2">
+        <f t="shared" si="5"/>
         <v>1605</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J35" s="27">
         <f>results20241225!J35</f>
         <v>194.27734375</v>
       </c>
-      <c r="K35" s="51" t="s">
+      <c r="K35" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="37" t="str">
+        <f>results20241225!B37</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D37" s="37" t="str">
+        <f>results20241225!C37</f>
+        <v>Items</v>
+      </c>
+      <c r="E37" s="37" t="str">
+        <f>results20241225!D37</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F37" s="37" t="str">
+        <f>results20241225!E37</f>
+        <v>density</v>
+      </c>
+      <c r="J37" s="38" t="str">
+        <f>results20241225!B37</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K37" s="38" t="str">
+        <f>results20241225!C37</f>
+        <v>Items</v>
+      </c>
+      <c r="L37" s="38" t="str">
+        <f>results20241225!D37</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M37" s="38" t="str">
+        <f>results20241225!E37</f>
+        <v>density</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="2">
+        <v>45</v>
+      </c>
+      <c r="C38" s="37">
+        <f>results20241225!B38</f>
+        <v>8124</v>
+      </c>
+      <c r="D38" s="37">
+        <f>results20241225!C38</f>
+        <v>119</v>
+      </c>
+      <c r="E38" s="37">
+        <f>results20241225!D38</f>
         <v>23</v>
       </c>
-      <c r="D38" s="2">
-        <v>8124</v>
-      </c>
-      <c r="E38" s="2">
-        <v>119</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="F38" s="37">
+        <f>results20241225!E38</f>
         <v>0.12328</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="32">
+        <v>45</v>
+      </c>
+      <c r="J38" s="38">
+        <f>results20241225!B38</f>
         <v>8124</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="38">
+        <f>results20241225!C38</f>
         <v>119</v>
       </c>
-      <c r="L38" s="37">
+      <c r="L38" s="43">
+        <f>results20241225!D38</f>
         <v>23</v>
       </c>
-      <c r="M38" s="37">
+      <c r="M38" s="44">
+        <f>results20241225!E38</f>
         <v>0.12328</v>
       </c>
     </row>
@@ -5170,7 +5740,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>43</v>
@@ -5184,7 +5754,7 @@
         <v>21</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>43</v>
@@ -5197,149 +5767,196 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
+        <f>results20241225!A40</f>
         <v>106</v>
       </c>
       <c r="B40" s="2">
         <v>31</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="19">
         <f>results20241225!D40</f>
         <v>0.31</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="19">
         <v>0.65700000000000003</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
       <c r="H40" s="2">
+        <f>A40</f>
         <v>106</v>
       </c>
       <c r="I40" s="2">
+        <f>B40</f>
         <v>31</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="27">
         <f>results20241225!J40</f>
         <v>11.35546875</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="31">
         <v>39</v>
       </c>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
+        <f>results20241225!A41</f>
         <v>1008</v>
       </c>
       <c r="B41" s="2">
         <v>164</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="19">
         <f>results20241225!D41</f>
         <v>0.39</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="25">
         <v>1.216</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="26"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="17"/>
       <c r="H41" s="2">
+        <f t="shared" ref="H41:I42" si="6">A41</f>
         <v>1008</v>
       </c>
       <c r="I41" s="2">
+        <f t="shared" si="6"/>
         <v>164</v>
       </c>
-      <c r="J41" s="33">
+      <c r="J41" s="27">
         <f>results20241225!J41</f>
         <v>13.33203125</v>
       </c>
-      <c r="K41" s="38">
+      <c r="K41" s="31">
         <v>40</v>
       </c>
-      <c r="L41" s="39"/>
-      <c r="M41" s="38"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="31"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
+        <f>results20241225!A42</f>
         <v>10011</v>
       </c>
       <c r="B42" s="2">
         <v>368</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="19">
         <f>results20241225!D42</f>
         <v>8.1</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="25">
         <v>42.253</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
       <c r="H42" s="2">
+        <f t="shared" si="6"/>
         <v>10011</v>
       </c>
       <c r="I42" s="2">
+        <f t="shared" si="6"/>
         <v>368</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="27">
         <f>results20241225!J42</f>
         <v>32.57421875</v>
       </c>
-      <c r="K42" s="38">
+      <c r="K42" s="31">
         <v>42</v>
       </c>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="37" t="str">
+        <f>results20241225!B44</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D44" s="37" t="str">
+        <f>results20241225!C44</f>
+        <v>Items</v>
+      </c>
+      <c r="E44" s="37" t="str">
+        <f>results20241225!D44</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F44" s="37" t="str">
+        <f>results20241225!E44</f>
+        <v>density</v>
+      </c>
+      <c r="J44" s="38" t="str">
+        <f>results20241225!B44</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K44" s="38" t="str">
+        <f>results20241225!C44</f>
+        <v>Items</v>
+      </c>
+      <c r="L44" s="38" t="str">
+        <f>results20241225!D44</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M44" s="38" t="str">
+        <f>results20241225!E44</f>
+        <v>density</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="2">
+        <v>45</v>
+      </c>
+      <c r="C45" s="37">
+        <f>results20241225!B45</f>
+        <v>49046</v>
+      </c>
+      <c r="D45" s="37">
+        <f>results20241225!C45</f>
+        <v>2113</v>
+      </c>
+      <c r="E45" s="37">
+        <f>results20241225!D45</f>
         <v>74</v>
       </c>
-      <c r="D45" s="2">
-        <v>49046</v>
-      </c>
-      <c r="E45" s="2">
-        <v>2113</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="F45" s="37">
+        <f>results20241225!E45</f>
         <v>3.5020000000000003E-2</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" s="32">
+        <v>45</v>
+      </c>
+      <c r="J45" s="38">
+        <f>results20241225!B45</f>
         <v>49046</v>
       </c>
-      <c r="K45" s="37">
+      <c r="K45" s="38">
+        <f>results20241225!C45</f>
         <v>2113</v>
       </c>
-      <c r="L45" s="37">
+      <c r="L45" s="43">
+        <f>results20241225!D45</f>
         <v>74</v>
       </c>
-      <c r="M45" s="37">
+      <c r="M45" s="44">
+        <f>results20241225!E45</f>
         <v>3.5020000000000003E-2</v>
       </c>
     </row>
@@ -5348,7 +5965,7 @@
         <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>43</v>
@@ -5362,7 +5979,7 @@
         <v>21</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>43</v>
@@ -5375,149 +5992,196 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
+        <f>results20241225!A47</f>
         <v>100</v>
       </c>
       <c r="B47" s="2">
         <v>64</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="19">
         <f>results20241225!D47</f>
         <v>1.41</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="19">
         <v>206.13200000000001</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
       <c r="H47" s="2">
+        <f>A47</f>
         <v>100</v>
       </c>
       <c r="I47" s="2">
+        <f>B47</f>
         <v>64</v>
       </c>
-      <c r="J47" s="33">
+      <c r="J47" s="27">
         <f>results20241225!J47</f>
         <v>14.9375</v>
       </c>
-      <c r="K47" s="38">
+      <c r="K47" s="31">
         <v>742</v>
       </c>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
+        <f>results20241225!A48</f>
         <v>1000</v>
       </c>
       <c r="B48" s="2">
         <v>511</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="19">
         <f>results20241225!D48</f>
         <v>1.76</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="25">
         <v>270.68900000000002</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="26"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="17"/>
       <c r="H48" s="2">
+        <f t="shared" ref="H48:I49" si="7">A48</f>
         <v>1000</v>
       </c>
       <c r="I48" s="2">
+        <f t="shared" si="7"/>
         <v>511</v>
       </c>
-      <c r="J48" s="33">
+      <c r="J48" s="27">
         <f>results20241225!J48</f>
         <v>32.9375</v>
       </c>
-      <c r="K48" s="38">
+      <c r="K48" s="31">
         <v>742</v>
       </c>
-      <c r="L48" s="39"/>
-      <c r="M48" s="38"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="31"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
+        <f>results20241225!A49</f>
         <v>10002</v>
       </c>
       <c r="B49" s="2">
         <v>2444</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="19">
         <f>results20241225!D49</f>
         <v>10.7</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
       <c r="H49" s="2">
+        <f t="shared" si="7"/>
         <v>10002</v>
       </c>
       <c r="I49" s="2">
+        <f t="shared" si="7"/>
         <v>2444</v>
       </c>
-      <c r="J49" s="33">
+      <c r="J49" s="27">
         <f>results20241225!J49</f>
         <v>231.99609375</v>
       </c>
-      <c r="K49" s="51" t="s">
+      <c r="K49" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="37" t="str">
+        <f>results20241225!B51</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D51" s="37" t="str">
+        <f>results20241225!C51</f>
+        <v>Items</v>
+      </c>
+      <c r="E51" s="37" t="str">
+        <f>results20241225!D51</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F51" s="37" t="str">
+        <f>results20241225!E51</f>
+        <v>density</v>
+      </c>
+      <c r="J51" s="38" t="str">
+        <f>results20241225!B51</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K51" s="38" t="str">
+        <f>results20241225!C51</f>
+        <v>Items</v>
+      </c>
+      <c r="L51" s="38" t="str">
+        <f>results20241225!D51</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M51" s="38" t="str">
+        <f>results20241225!E51</f>
+        <v>density</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="2">
+        <v>45</v>
+      </c>
+      <c r="C52" s="37">
+        <f>results20241225!B52</f>
+        <v>49046</v>
+      </c>
+      <c r="D52" s="37">
+        <f>results20241225!C52</f>
+        <v>2089</v>
+      </c>
+      <c r="E52" s="37">
+        <f>results20241225!D52</f>
         <v>51.5</v>
       </c>
-      <c r="D52" s="2">
-        <v>49046</v>
-      </c>
-      <c r="E52" s="2">
-        <v>2089</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="F52" s="37">
+        <f>results20241225!E52</f>
         <v>2.4639999999999999E-2</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J52" s="32">
+        <v>45</v>
+      </c>
+      <c r="J52" s="38">
+        <f>results20241225!B52</f>
         <v>49046</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="38">
+        <f>results20241225!C52</f>
         <v>2089</v>
       </c>
-      <c r="L52" s="37">
+      <c r="L52" s="43">
+        <f>results20241225!D52</f>
         <v>51.5</v>
       </c>
-      <c r="M52" s="37">
+      <c r="M52" s="44">
+        <f>results20241225!E52</f>
         <v>2.4639999999999999E-2</v>
       </c>
     </row>
@@ -5526,7 +6190,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>43</v>
@@ -5540,7 +6204,7 @@
         <v>21</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>43</v>
@@ -5553,149 +6217,196 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
+        <f>results20241225!A54</f>
         <v>101</v>
       </c>
       <c r="B54" s="2">
         <v>49</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="19">
         <f>results20241225!D54</f>
         <v>1.04</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="19">
         <v>101.15</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
       <c r="H54" s="2">
+        <f>A54</f>
         <v>101</v>
       </c>
       <c r="I54" s="2">
+        <f>B54</f>
         <v>49</v>
       </c>
-      <c r="J54" s="33">
+      <c r="J54" s="27">
         <f>results20241225!J54</f>
         <v>15.171875</v>
       </c>
-      <c r="K54" s="38">
+      <c r="K54" s="31">
         <v>553</v>
       </c>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
+        <f>results20241225!A55</f>
         <v>1003</v>
       </c>
       <c r="B55" s="2">
         <v>356</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="19">
         <f>results20241225!D55</f>
         <v>1.51</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="25">
         <v>119.691</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="26"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="17"/>
       <c r="H55" s="2">
+        <f t="shared" ref="H55:I56" si="8">A55</f>
         <v>1003</v>
       </c>
       <c r="I55" s="2">
+        <f t="shared" si="8"/>
         <v>356</v>
       </c>
-      <c r="J55" s="33">
+      <c r="J55" s="27">
         <f>results20241225!J55</f>
         <v>32.5390625</v>
       </c>
-      <c r="K55" s="38">
+      <c r="K55" s="31">
         <v>571</v>
       </c>
-      <c r="L55" s="39"/>
-      <c r="M55" s="38"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="31"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
+        <f>results20241225!A56</f>
         <v>10000</v>
       </c>
       <c r="B56" s="2">
         <v>1286</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="19">
         <f>results20241225!D56</f>
         <v>11.85</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
       <c r="H56" s="2">
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="I56" s="2">
+        <f t="shared" si="8"/>
         <v>1286</v>
       </c>
-      <c r="J56" s="33">
+      <c r="J56" s="27">
         <f>results20241225!J56</f>
         <v>218.91796875</v>
       </c>
-      <c r="K56" s="51" t="s">
+      <c r="K56" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C58" s="37" t="str">
+        <f>results20241225!B58</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D58" s="37" t="str">
+        <f>results20241225!C58</f>
+        <v>Items</v>
+      </c>
+      <c r="E58" s="37" t="str">
+        <f>results20241225!D58</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F58" s="37" t="str">
+        <f>results20241225!E58</f>
+        <v>density</v>
+      </c>
+      <c r="J58" s="38" t="str">
+        <f>results20241225!B58</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K58" s="38" t="str">
+        <f>results20241225!C58</f>
+        <v>Items</v>
+      </c>
+      <c r="L58" s="38" t="str">
+        <f>results20241225!D58</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M58" s="38" t="str">
+        <f>results20241225!E58</f>
+        <v>density</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="2">
+        <v>45</v>
+      </c>
+      <c r="C59" s="37">
+        <f>results20241225!B59</f>
+        <v>100000</v>
+      </c>
+      <c r="D59" s="37">
+        <f>results20241225!C59</f>
+        <v>871</v>
+      </c>
+      <c r="E59" s="37">
+        <f>results20241225!D59</f>
         <v>11.1</v>
       </c>
-      <c r="D59" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E59" s="2">
-        <v>871</v>
-      </c>
-      <c r="F59" s="2">
+      <c r="F59" s="37">
+        <f>results20241225!E59</f>
         <v>1.2749999999999999E-2</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J59" s="32">
+        <v>45</v>
+      </c>
+      <c r="J59" s="38">
+        <f>results20241225!B59</f>
         <v>100000</v>
       </c>
-      <c r="K59" s="37">
+      <c r="K59" s="38">
+        <f>results20241225!C59</f>
         <v>871</v>
       </c>
-      <c r="L59" s="37">
+      <c r="L59" s="43">
+        <f>results20241225!D59</f>
         <v>11.1</v>
       </c>
-      <c r="M59" s="37">
+      <c r="M59" s="44">
+        <f>results20241225!E59</f>
         <v>1.2749999999999999E-2</v>
       </c>
     </row>
@@ -5704,7 +6415,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>43</v>
@@ -5718,7 +6429,7 @@
         <v>21</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>43</v>
@@ -5731,123 +6442,194 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
+        <f>results20241225!A61</f>
         <v>100</v>
       </c>
       <c r="B61" s="2">
-        <v>97</v>
-      </c>
-      <c r="C61" s="21">
+        <v>98</v>
+      </c>
+      <c r="C61" s="19">
         <f>results20241225!D61</f>
         <v>0.62</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
+      <c r="D61" s="19">
+        <v>24.55</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
       <c r="H61" s="2">
+        <f>A61</f>
         <v>100</v>
       </c>
       <c r="I61" s="2">
-        <v>97</v>
-      </c>
-      <c r="J61" s="33">
+        <f>B61</f>
+        <v>98</v>
+      </c>
+      <c r="J61" s="27">
         <f>results20241225!J61</f>
         <v>16.578125</v>
       </c>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
+      <c r="K61" s="31">
+        <v>364</v>
+      </c>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
+        <f>results20241225!A62</f>
         <v>1001</v>
       </c>
       <c r="B62" s="2">
-        <v>865</v>
-      </c>
-      <c r="C62" s="21">
+        <v>660</v>
+      </c>
+      <c r="C62" s="19">
         <f>results20241225!D62</f>
         <v>2.02</v>
       </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="26"/>
+      <c r="D62" s="25">
+        <v>149.74</v>
+      </c>
+      <c r="E62" s="23"/>
+      <c r="F62" s="17"/>
       <c r="H62" s="2">
+        <f t="shared" ref="H62:I63" si="9">A62</f>
         <v>1001</v>
       </c>
       <c r="I62" s="2">
-        <v>865</v>
-      </c>
-      <c r="J62" s="33">
+        <f t="shared" si="9"/>
+        <v>660</v>
+      </c>
+      <c r="J62" s="27">
         <f>results20241225!J62</f>
         <v>34.80078125</v>
       </c>
-      <c r="K62" s="38"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="38"/>
+      <c r="K62" s="31">
+        <v>378</v>
+      </c>
+      <c r="L62" s="32"/>
+      <c r="M62" s="31"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>10074</v>
+        <f>results20241225!A63</f>
+        <v>10075</v>
       </c>
       <c r="B63" s="2">
-        <v>2117</v>
-      </c>
-      <c r="C63" s="21">
+        <v>953</v>
+      </c>
+      <c r="C63" s="19">
         <f>results20241225!D63</f>
-        <v>14.34</v>
-      </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
+        <v>12.939</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
       <c r="H63" s="2">
-        <v>10074</v>
+        <f t="shared" si="9"/>
+        <v>10075</v>
       </c>
       <c r="I63" s="2">
-        <v>2117</v>
-      </c>
-      <c r="J63" s="33">
+        <f t="shared" si="9"/>
+        <v>953</v>
+      </c>
+      <c r="J63" s="27">
         <f>results20241225!J63</f>
-        <v>372.75</v>
-      </c>
-      <c r="K63" s="38"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
+        <v>391</v>
+      </c>
+      <c r="K63" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C65" s="37" t="str">
+        <f>results20241225!B65</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D65" s="37" t="str">
+        <f>results20241225!C65</f>
+        <v>Items</v>
+      </c>
+      <c r="E65" s="37" t="str">
+        <f>results20241225!D65</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F65" s="37" t="str">
+        <f>results20241225!E65</f>
+        <v>density</v>
+      </c>
+      <c r="J65" s="38" t="str">
+        <f>results20241225!B65</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K65" s="38" t="str">
+        <f>results20241225!C65</f>
+        <v>Items</v>
+      </c>
+      <c r="L65" s="38" t="str">
+        <f>results20241225!D65</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M65" s="38" t="str">
+        <f>results20241225!E65</f>
+        <v>density</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2">
+      <c r="C66" s="37">
+        <f>results20241225!B66</f>
         <v>100000</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="D66" s="37">
+        <f>results20241225!C66</f>
+        <v>943</v>
+      </c>
+      <c r="E66" s="37">
+        <f>results20241225!D66</f>
+        <v>40.6</v>
+      </c>
+      <c r="F66" s="37">
+        <f>results20241225!E66</f>
+        <v>4.3060000000000001E-2</v>
+      </c>
       <c r="H66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="32">
+      <c r="J66" s="38">
+        <f>results20241225!B66</f>
         <v>100000</v>
       </c>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
+      <c r="K66" s="38">
+        <f>results20241225!C66</f>
+        <v>943</v>
+      </c>
+      <c r="L66" s="43">
+        <f>results20241225!D66</f>
+        <v>40.6</v>
+      </c>
+      <c r="M66" s="44">
+        <f>results20241225!E66</f>
+        <v>4.3060000000000001E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
@@ -5877,137 +6659,196 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
+        <f>results20241225!A68</f>
         <v>100</v>
       </c>
       <c r="B68" s="2">
-        <v>98</v>
-      </c>
-      <c r="C68" s="21">
+        <v>97</v>
+      </c>
+      <c r="C68" s="19">
         <f>results20241225!D68</f>
-        <v>1.83</v>
-      </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
+        <v>1.71</v>
+      </c>
+      <c r="D68" s="19">
+        <v>63.35</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
       <c r="H68" s="2">
+        <f>A68</f>
         <v>100</v>
       </c>
       <c r="I68" s="2">
-        <v>98</v>
-      </c>
-      <c r="J68" s="33">
+        <f>B68</f>
+        <v>97</v>
+      </c>
+      <c r="J68" s="27">
         <f>results20241225!J68</f>
         <v>17.19140625</v>
       </c>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
+      <c r="K68" s="31">
+        <v>1557</v>
+      </c>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
+        <f>results20241225!A69</f>
         <v>1000</v>
       </c>
       <c r="B69" s="2">
-        <v>660</v>
-      </c>
-      <c r="C69" s="21">
+        <v>865</v>
+      </c>
+      <c r="C69" s="19">
         <f>results20241225!D69</f>
         <v>3.29</v>
       </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="26"/>
+      <c r="D69" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="23"/>
+      <c r="F69" s="17"/>
       <c r="H69" s="2">
+        <f t="shared" ref="H69:I70" si="10">A69</f>
         <v>1000</v>
       </c>
       <c r="I69" s="2">
-        <v>660</v>
-      </c>
-      <c r="J69" s="33">
+        <f t="shared" si="10"/>
+        <v>865</v>
+      </c>
+      <c r="J69" s="27">
         <f>results20241225!J69</f>
         <v>29.078125</v>
       </c>
-      <c r="K69" s="38"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="38"/>
+      <c r="K69" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="32"/>
+      <c r="M69" s="31"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
+        <f>results20241225!A70</f>
         <v>10018</v>
       </c>
       <c r="B70" s="2">
-        <v>953</v>
-      </c>
-      <c r="C70" s="21">
+        <v>2117</v>
+      </c>
+      <c r="C70" s="19">
         <f>results20241225!D70</f>
-        <v>20.53</v>
-      </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
+        <v>19.78</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
       <c r="H70" s="2">
+        <f t="shared" si="10"/>
         <v>10018</v>
       </c>
       <c r="I70" s="2">
-        <v>953</v>
-      </c>
-      <c r="J70" s="33">
+        <f t="shared" si="10"/>
+        <v>2117</v>
+      </c>
+      <c r="J70" s="27">
         <f>results20241225!J70</f>
         <v>347.10546875</v>
       </c>
-      <c r="K70" s="38"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
+      <c r="K70" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C72" s="37" t="str">
+        <f>results20241225!B72</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D72" s="37" t="str">
+        <f>results20241225!C72</f>
+        <v>Items</v>
+      </c>
+      <c r="E72" s="37" t="str">
+        <f>results20241225!D72</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F72" s="37" t="str">
+        <f>results20241225!E72</f>
+        <v>density</v>
+      </c>
+      <c r="J72" s="38" t="str">
+        <f>results20241225!B72</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K72" s="38" t="str">
+        <f>results20241225!C72</f>
+        <v>Items</v>
+      </c>
+      <c r="L72" s="38" t="str">
+        <f>results20241225!D72</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M72" s="38" t="str">
+        <f>results20241225!E72</f>
+        <v>density</v>
+      </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="3">
+        <v>45</v>
+      </c>
+      <c r="C73" s="37">
+        <f>results20241225!B73</f>
+        <v>3587</v>
+      </c>
+      <c r="D73" s="37">
+        <f>results20241225!C73</f>
+        <v>2160</v>
+      </c>
+      <c r="E73" s="37">
+        <f>results20241225!D73</f>
         <v>18.12</v>
       </c>
-      <c r="D73" s="2">
-        <v>3587</v>
-      </c>
-      <c r="E73" s="2">
-        <v>2160</v>
-      </c>
-      <c r="F73" s="4">
+      <c r="F73" s="37">
+        <f>results20241225!E73</f>
         <v>8.3876000000000003E-3</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J73" s="32">
+        <v>45</v>
+      </c>
+      <c r="J73" s="38">
+        <f>results20241225!B73</f>
         <v>3587</v>
       </c>
-      <c r="K73" s="37">
+      <c r="K73" s="38">
+        <f>results20241225!C73</f>
         <v>2160</v>
       </c>
-      <c r="L73" s="37">
+      <c r="L73" s="43">
+        <f>results20241225!D73</f>
         <v>18.12</v>
       </c>
-      <c r="M73" s="37">
+      <c r="M73" s="44">
+        <f>results20241225!E73</f>
         <v>8.3876000000000003E-3</v>
       </c>
     </row>
@@ -6016,7 +6857,7 @@
         <v>21</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>43</v>
@@ -6030,7 +6871,7 @@
         <v>21</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>43</v>
@@ -6043,137 +6884,196 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>101</v>
+        <f>results20241225!A75</f>
+        <v>100</v>
       </c>
       <c r="B75" s="2">
         <v>69</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="19">
         <f>results20241225!D75</f>
-        <v>0.55365228652954102</v>
-      </c>
-      <c r="D75" s="29"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
+        <v>0.309</v>
+      </c>
+      <c r="D75" s="19">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
       <c r="H75" s="2">
-        <v>101</v>
+        <f>A75</f>
+        <v>100</v>
       </c>
       <c r="I75" s="2">
+        <f>B75</f>
         <v>69</v>
       </c>
-      <c r="J75" s="33">
+      <c r="J75" s="27">
         <f>results20241225!J75</f>
-        <v>11.2421875</v>
-      </c>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
+        <v>12</v>
+      </c>
+      <c r="K75" s="31">
+        <v>37</v>
+      </c>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>1022</v>
+        <f>results20241225!A76</f>
+        <v>1025</v>
       </c>
       <c r="B76" s="2">
         <v>143</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="19">
         <f>results20241225!D76</f>
-        <v>2.4180223941802899</v>
-      </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="26"/>
+        <v>0.62</v>
+      </c>
+      <c r="D76" s="25">
+        <v>13.007999999999999</v>
+      </c>
+      <c r="E76" s="23"/>
+      <c r="F76" s="17"/>
       <c r="H76" s="2">
-        <v>1022</v>
+        <f t="shared" ref="H76:I77" si="11">A76</f>
+        <v>1025</v>
       </c>
       <c r="I76" s="2">
+        <f t="shared" si="11"/>
         <v>143</v>
       </c>
-      <c r="J76" s="33">
+      <c r="J76" s="27">
         <f>results20241225!J76</f>
-        <v>12.7890625</v>
-      </c>
-      <c r="K76" s="38"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="38"/>
+        <v>14</v>
+      </c>
+      <c r="K76" s="31">
+        <v>39</v>
+      </c>
+      <c r="L76" s="32"/>
+      <c r="M76" s="31"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>10540</v>
+        <f>results20241225!A77</f>
+        <v>11257</v>
       </c>
       <c r="B77" s="2">
         <v>168</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="19">
         <f>results20241225!D77</f>
-        <v>13.807211875915501</v>
-      </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
+        <v>8.391</v>
+      </c>
+      <c r="D77" s="25">
+        <v>158.49600000000001</v>
+      </c>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
       <c r="H77" s="2">
-        <v>10540</v>
+        <f t="shared" si="11"/>
+        <v>11257</v>
       </c>
       <c r="I77" s="2">
+        <f t="shared" si="11"/>
         <v>168</v>
       </c>
-      <c r="J77" s="33">
+      <c r="J77" s="27">
         <f>results20241225!J77</f>
-        <v>30.828125</v>
-      </c>
-      <c r="K77" s="38"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
+        <v>33</v>
+      </c>
+      <c r="K77" s="31">
+        <v>60</v>
+      </c>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C79" s="37" t="str">
+        <f>results20241225!B79</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D79" s="37" t="str">
+        <f>results20241225!C79</f>
+        <v>Items</v>
+      </c>
+      <c r="E79" s="37" t="str">
+        <f>results20241225!D79</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F79" s="37" t="str">
+        <f>results20241225!E79</f>
+        <v>density</v>
+      </c>
+      <c r="J79" s="38" t="str">
+        <f>results20241225!B79</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K79" s="38" t="str">
+        <f>results20241225!C79</f>
+        <v>Items</v>
+      </c>
+      <c r="L79" s="38" t="str">
+        <f>results20241225!D79</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M79" s="38" t="str">
+        <f>results20241225!E79</f>
+        <v>density</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="3">
+        <v>45</v>
+      </c>
+      <c r="C80" s="37">
+        <f>results20241225!B80</f>
+        <v>100000</v>
+      </c>
+      <c r="D80" s="37">
+        <f>results20241225!C80</f>
+        <v>20</v>
+      </c>
+      <c r="E80" s="37">
+        <f>results20241225!D80</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="D80" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E80" s="2">
-        <v>20</v>
-      </c>
-      <c r="F80" s="4">
+      <c r="F80" s="37">
+        <f>results20241225!E80</f>
         <v>0.80584</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J80" s="32">
+        <v>45</v>
+      </c>
+      <c r="J80" s="38">
+        <f>results20241225!B80</f>
         <v>100000</v>
       </c>
-      <c r="K80" s="37">
+      <c r="K80" s="38">
+        <f>results20241225!C80</f>
         <v>20</v>
       </c>
-      <c r="L80" s="37">
+      <c r="L80" s="43">
+        <f>results20241225!D80</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="M80" s="37">
+      <c r="M80" s="44">
+        <f>results20241225!E80</f>
         <v>0.80584</v>
       </c>
     </row>
@@ -6182,380 +7082,587 @@
         <v>21</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
       <c r="H81" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J81" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K81" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L81" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="M81" s="37" t="s">
-        <v>9</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
+        <f>results20241225!A82</f>
         <v>100</v>
       </c>
       <c r="B82" s="2">
         <v>91</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="19">
         <f>results20241225!D82</f>
         <v>0.96733808517455999</v>
       </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
+      <c r="D82" s="19">
+        <v>6.58</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
       <c r="H82" s="2">
+        <f>A82</f>
         <v>100</v>
       </c>
       <c r="I82" s="2">
+        <f>B82</f>
         <v>91</v>
       </c>
-      <c r="J82" s="33">
+      <c r="J82" s="27">
         <f>results20241225!J82</f>
         <v>13.9140625</v>
       </c>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
+      <c r="K82" s="31">
+        <v>202</v>
+      </c>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
+        <f>results20241225!A83</f>
         <v>1003</v>
       </c>
       <c r="B83" s="2">
         <v>523</v>
       </c>
-      <c r="C83" s="21">
+      <c r="C83" s="19">
         <f>results20241225!D83</f>
         <v>1.1073670387268</v>
       </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="26"/>
+      <c r="D83" s="25">
+        <v>23.19</v>
+      </c>
+      <c r="E83" s="23"/>
+      <c r="F83" s="17"/>
       <c r="H83" s="2">
+        <f t="shared" ref="H83:I84" si="12">A83</f>
         <v>1003</v>
       </c>
       <c r="I83" s="2">
+        <f t="shared" si="12"/>
         <v>523</v>
       </c>
-      <c r="J83" s="33">
+      <c r="J83" s="27">
         <f>results20241225!J83</f>
         <v>24.8984375</v>
       </c>
-      <c r="K83" s="38"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="38"/>
+      <c r="K83" s="31">
+        <v>222</v>
+      </c>
+      <c r="L83" s="32"/>
+      <c r="M83" s="31"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
+        <f>results20241225!A84</f>
         <v>10034</v>
       </c>
       <c r="B84" s="2">
         <v>1581</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="19">
         <f>results20241225!D84</f>
         <v>8.48066902160644</v>
       </c>
-      <c r="D84" s="30"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
+      <c r="D84" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
       <c r="H84" s="2">
+        <f t="shared" si="12"/>
         <v>10034</v>
       </c>
       <c r="I84" s="2">
+        <f t="shared" si="12"/>
         <v>1581</v>
       </c>
-      <c r="J84" s="33">
+      <c r="J84" s="27">
         <f>results20241225!J84</f>
         <v>80.9609375</v>
       </c>
-      <c r="K84" s="38"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
+      <c r="K84" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C86" s="37" t="str">
+        <f>results20241225!B86</f>
+        <v>Transactions</v>
+      </c>
+      <c r="D86" s="37" t="str">
+        <f>results20241225!C86</f>
+        <v>Items</v>
+      </c>
+      <c r="E86" s="37" t="str">
+        <f>results20241225!D86</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="F86" s="37" t="str">
+        <f>results20241225!E86</f>
+        <v>density</v>
+      </c>
+      <c r="J86" s="38" t="str">
+        <f>results20241225!B86</f>
+        <v>Transactions</v>
+      </c>
+      <c r="K86" s="38" t="str">
+        <f>results20241225!C86</f>
+        <v>Items</v>
+      </c>
+      <c r="L86" s="38" t="str">
+        <f>results20241225!D86</f>
+        <v>avg_transaction_size</v>
+      </c>
+      <c r="M86" s="38" t="str">
+        <f>results20241225!E86</f>
+        <v>density</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="37">
+        <f>results20241225!B87</f>
+        <v>1692082</v>
+      </c>
+      <c r="D87" s="37">
+        <f>results20241225!C87</f>
+        <v>5267656</v>
+      </c>
+      <c r="E87" s="37">
+        <f>results20241225!D87</f>
+        <v>177.2</v>
+      </c>
+      <c r="F87" s="37">
+        <f>results20241225!E87</f>
+        <v>3.3645000000000001E-5</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J87" s="38">
+        <f>results20241225!B87</f>
+        <v>1692082</v>
+      </c>
+      <c r="K87" s="38">
+        <f>results20241225!C87</f>
+        <v>5267656</v>
+      </c>
+      <c r="L87" s="43">
+        <f>results20241225!D87</f>
+        <v>177.2</v>
+      </c>
+      <c r="M87" s="44">
+        <f>results20241225!E87</f>
+        <v>3.3645000000000001E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="H88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <f>results20241225!A89</f>
+        <v>100</v>
+      </c>
+      <c r="B89" s="2">
+        <v>91</v>
+      </c>
+      <c r="C89" s="19">
+        <f>results20241225!D89</f>
+        <v>323.22000000000003</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="17">
+        <v>122.88</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="H89" s="2">
+        <f>A89</f>
+        <v>100</v>
+      </c>
+      <c r="I89" s="2">
+        <f>B89</f>
+        <v>91</v>
+      </c>
+      <c r="J89" s="50">
+        <f>results20241225!J89</f>
+        <v>1512</v>
+      </c>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31">
+        <v>408</v>
+      </c>
+      <c r="M89" s="31"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <f>results20241225!A90</f>
+        <v>1000</v>
+      </c>
+      <c r="B90" s="2">
+        <v>523</v>
+      </c>
+      <c r="C90" s="19">
+        <f>results20241225!D90</f>
+        <v>665.3</v>
+      </c>
+      <c r="D90" s="25"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="17"/>
+      <c r="H90" s="2">
+        <f t="shared" ref="H90:H91" si="13">A90</f>
+        <v>1000</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" ref="I90:I91" si="14">B90</f>
+        <v>523</v>
+      </c>
+      <c r="J90" s="50">
+        <f>results20241225!J90</f>
+        <v>1934</v>
+      </c>
+      <c r="K90" s="31"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="31"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <f>results20241225!A91</f>
+        <v>10000</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1581</v>
+      </c>
+      <c r="C91" s="25" t="str">
+        <f>results20241225!D91</f>
+        <v>1000+++</v>
+      </c>
+      <c r="D91" s="25"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="H91" s="2">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="14"/>
+        <v>1581</v>
+      </c>
+      <c r="J91" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="41"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J15:M15 C15:F15 C29:F29 C36:F36 C43:F43 C50:F50 C57:F57 C64:F64 C71:F71 C78:F78 C8:F8 J22 C22 C5:C7 E5:F7">
-    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:C7 E5:F7 C8:F8">
+    <cfRule type="cellIs" dxfId="47" priority="84" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:F14">
-    <cfRule type="cellIs" dxfId="52" priority="68" operator="equal">
+  <conditionalFormatting sqref="C19:C22">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:F28">
-    <cfRule type="cellIs" dxfId="51" priority="67" operator="equal">
+  <conditionalFormatting sqref="C15:F15 C12:C14 E12:F14">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:F34 E35:F35">
-    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
+  <conditionalFormatting sqref="C26:F29">
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:F42">
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+  <conditionalFormatting sqref="C33:F36">
+    <cfRule type="cellIs" dxfId="43" priority="20" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:F48 E49:F49">
-    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
+  <conditionalFormatting sqref="C40:F43">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:F55 E56:F56">
-    <cfRule type="cellIs" dxfId="47" priority="63" operator="equal">
+  <conditionalFormatting sqref="C47:F50">
+    <cfRule type="cellIs" dxfId="41" priority="18" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:F63">
-    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
+  <conditionalFormatting sqref="C54:F57">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:F70">
-    <cfRule type="cellIs" dxfId="45" priority="61" operator="equal">
+  <conditionalFormatting sqref="C61:F62 C64:F64 C63 E63:F63">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:F77">
-    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
+  <conditionalFormatting sqref="D68:F68 C71:F71 E69:F70">
+    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:F84">
-    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
+  <conditionalFormatting sqref="C75:F78">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:M14">
-    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
+  <conditionalFormatting sqref="C82:F83 C84 E84:F84">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:M8 J15:M15 J29:M29 J36:M36 J43:M43 J50:M50 J57:M57 J64:M64 J71:M71 J78:M78 J22:M22 K12:M14 K19:M21 K5:M7">
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
+  <conditionalFormatting sqref="J5:J7">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J22">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J28">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:J35">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40:J42">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:J49">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:J56">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61:J63">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:J70">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75:J77">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82:J84">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:M15">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:M7 J8:M8 J15:M15 K19:M21 J22:M22 J29:M29 J36:M36 J43:M43 J50:M50 J57:M57 J64:M64 J71:M71 J78:M78 K12:M14">
+    <cfRule type="cellIs" dxfId="23" priority="57" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:M27 L28:M28">
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+  <conditionalFormatting sqref="K26:M28">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:M34 L35:M35">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+  <conditionalFormatting sqref="K33:M35">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:M42">
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="54" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:M48 L49:M49">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+  <conditionalFormatting sqref="K47:M49">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:M55 L56:M56">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+  <conditionalFormatting sqref="K54:M56">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:M63">
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+  <conditionalFormatting sqref="K61:M62 L63:M63">
+    <cfRule type="cellIs" dxfId="17" priority="51" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:M70">
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+  <conditionalFormatting sqref="K68:M68 L69:M70">
+    <cfRule type="cellIs" dxfId="16" priority="50" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:M77">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="49" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:M84">
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+  <conditionalFormatting sqref="K82:M83 L84:M84">
+    <cfRule type="cellIs" dxfId="14" priority="48" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C14">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C21">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C35">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C42">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C49">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54:C56">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C70">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C77">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C84">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J14">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J21">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J28">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:J35">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:J42">
+  <conditionalFormatting sqref="D63">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47:J49">
+  <conditionalFormatting sqref="K63">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"300+++"</formula>
+      <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54:J56">
+  <conditionalFormatting sqref="D84">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61:J63">
+  <conditionalFormatting sqref="K84">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"300+++"</formula>
+      <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68:J70">
+  <conditionalFormatting sqref="K69">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"300+++"</formula>
+      <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J75:J77">
+  <conditionalFormatting sqref="K70">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"300+++"</formula>
+      <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J82:J84">
+  <conditionalFormatting sqref="C68:C70">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="C89:F90 C91 E91:F91">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89:J90">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K89:M90 L91:M91">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"n/a"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D91">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
+  <conditionalFormatting sqref="K91">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="C91">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"300+++"</formula>
+      <formula>"1000+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
+  <conditionalFormatting sqref="J91">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>

--- a/Python/datasets/Experiments/output/results20241230.xlsx
+++ b/Python/datasets/Experiments/output/results20241230.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BEDECA-5C69-4BD8-9F0C-3EB8B9C8597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E33E1BC-8E02-49AF-992C-6B53F040B1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6035C6A1-F9DE-48BD-AD3B-5A2CA49F8B6B}"/>
+    <workbookView minimized="1" xWindow="2220" yWindow="1905" windowWidth="21600" windowHeight="10290" activeTab="1" xr2:uid="{6035C6A1-F9DE-48BD-AD3B-5A2CA49F8B6B}"/>
   </bookViews>
   <sheets>
     <sheet name="results20241225" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="50">
   <si>
     <t>Dataset</t>
   </si>
@@ -193,9 +193,9 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +354,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -805,7 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -882,14 +889,19 @@
     <xf numFmtId="3" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="40" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,11 +912,11 @@
     <xf numFmtId="0" fontId="18" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="40" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Έμφαση1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -951,57 +963,7 @@
     <cellStyle name="Τίτλος" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Υπολογισμός" xfId="11" builtinId="22" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1774,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6786672-0DA8-4A5B-8DAA-4F276EA38086}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="S74" sqref="S74"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,20 +1747,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2321,7 +2283,7 @@
         <v>17.21</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19:G82" si="9">A19</f>
+        <f t="shared" ref="G19:G21" si="9">A19</f>
         <v>100</v>
       </c>
       <c r="H19" s="16">
@@ -3430,8 +3392,8 @@
       <c r="C56" s="11">
         <v>233.04</v>
       </c>
-      <c r="D56" s="5">
-        <v>11.85</v>
+      <c r="D56" s="6">
+        <v>10.724</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>22</v>
@@ -4294,7 +4256,7 @@
       <c r="D87" s="3">
         <v>177.2</v>
       </c>
-      <c r="E87" s="49">
+      <c r="E87" s="45">
         <v>3.3645000000000001E-5</v>
       </c>
       <c r="G87" s="2" t="s">
@@ -4397,7 +4359,7 @@
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="48" t="s">
+      <c r="D91" s="44" t="s">
         <v>49</v>
       </c>
       <c r="E91" s="1"/>
@@ -4417,6 +4379,11 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D91">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+      <formula>"1000+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H5:K7 H12:K14 H19:K21 H26:K28 H33:K35 H40:K42 H47:K49 H54:K56 H61:K63 H68:K70 H75:K77 H82:K84">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -4441,11 +4408,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
-      <formula>"1000+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J91">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4467,8 +4429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F28AEF2-AE5E-4CBE-A1AE-68482664036D}">
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4483,22 +4445,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="H1" s="45" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="H1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
@@ -4575,11 +4537,11 @@
         <f>results20241225!C3</f>
         <v>41270</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="42">
         <f>results20241225!D3</f>
         <v>8.1</v>
       </c>
-      <c r="M3" s="44">
+      <c r="M3" s="43">
         <f>results20241225!E3</f>
         <v>1.9000000000000001E-4</v>
       </c>
@@ -4631,7 +4593,9 @@
       <c r="D5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="51">
+        <v>4.2348489999999996</v>
+      </c>
       <c r="F5" s="17"/>
       <c r="H5" s="2">
         <f>A5</f>
@@ -4648,7 +4612,9 @@
       <c r="K5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="31"/>
+      <c r="L5" s="31">
+        <v>20</v>
+      </c>
       <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -4666,7 +4632,9 @@
       <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="51">
+        <v>10.683597000000001</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="H6" s="2">
         <f t="shared" ref="H6:H7" si="0">A6</f>
@@ -4683,7 +4651,9 @@
       <c r="K6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="32"/>
+      <c r="L6" s="52">
+        <v>238</v>
+      </c>
       <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -4701,7 +4671,9 @@
       <c r="D7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="51">
+        <v>57.614651000000002</v>
+      </c>
       <c r="F7" s="23"/>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
@@ -4718,7 +4690,9 @@
       <c r="K7" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="32"/>
+      <c r="L7" s="52">
+        <v>758</v>
+      </c>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -4806,11 +4780,11 @@
         <f>results20241225!C10</f>
         <v>16471</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="42">
         <f>results20241225!D10</f>
         <v>11.3</v>
       </c>
-      <c r="M10" s="44">
+      <c r="M10" s="43">
         <f>results20241225!E10</f>
         <v>6.8999999999999997E-4</v>
       </c>
@@ -4861,7 +4835,9 @@
       <c r="D12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="51">
+        <v>0.46200200000000002</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="H12" s="2">
         <f>A12</f>
@@ -4878,7 +4854,9 @@
       <c r="K12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="31"/>
+      <c r="L12" s="53">
+        <v>12</v>
+      </c>
       <c r="M12" s="31"/>
       <c r="N12" s="13"/>
     </row>
@@ -4897,7 +4875,9 @@
       <c r="D13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="51">
+        <v>3.5187219999999999</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="H13" s="2">
         <f t="shared" ref="H13:I14" si="2">A13</f>
@@ -4914,7 +4894,9 @@
       <c r="K13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="32"/>
+      <c r="L13" s="52">
+        <v>72</v>
+      </c>
       <c r="M13" s="31"/>
       <c r="N13" s="13"/>
     </row>
@@ -4933,7 +4915,9 @@
       <c r="D14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="51">
+        <v>40.364441999999997</v>
+      </c>
       <c r="F14" s="23"/>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
@@ -4950,7 +4934,9 @@
       <c r="K14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="32"/>
+      <c r="L14" s="52">
+        <v>341</v>
+      </c>
       <c r="M14" s="32"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
@@ -5039,11 +5025,11 @@
         <f>results20241225!C17</f>
         <v>469</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="42">
         <f>results20241225!D17</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="43">
         <f>results20241225!E17</f>
         <v>7.4219999999999994E-2</v>
       </c>
@@ -5093,7 +5079,9 @@
       <c r="D19" s="19">
         <v>243.19</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="51">
+        <v>3.8042539999999998</v>
+      </c>
       <c r="F19" s="17"/>
       <c r="H19" s="2">
         <f>A19</f>
@@ -5110,7 +5098,9 @@
       <c r="K19" s="31">
         <v>2525</v>
       </c>
-      <c r="L19" s="31"/>
+      <c r="L19" s="31">
+        <v>7</v>
+      </c>
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -5128,7 +5118,9 @@
       <c r="D20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="51">
+        <v>4.2153299999999998</v>
+      </c>
       <c r="F20" s="17"/>
       <c r="H20" s="2">
         <f t="shared" ref="H20:I21" si="3">A20</f>
@@ -5145,7 +5137,9 @@
       <c r="K20" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="32"/>
+      <c r="L20" s="52">
+        <v>12</v>
+      </c>
       <c r="M20" s="31"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -5163,7 +5157,9 @@
       <c r="D21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="51">
+        <v>5.6064639999999999</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="H21" s="2">
         <f t="shared" si="3"/>
@@ -5180,7 +5176,9 @@
       <c r="K21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="32"/>
+      <c r="L21" s="52">
+        <v>79</v>
+      </c>
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -5272,11 +5270,11 @@
         <f>results20241225!C24</f>
         <v>75</v>
       </c>
-      <c r="L24" s="43">
+      <c r="L24" s="42">
         <f>results20241225!D24</f>
         <v>37</v>
       </c>
-      <c r="M24" s="44">
+      <c r="M24" s="43">
         <f>results20241225!E24</f>
         <v>0.49332999999999999</v>
       </c>
@@ -5326,7 +5324,9 @@
       <c r="D26" s="19">
         <v>0.68</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="51">
+        <v>4.0998E-2</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="H26" s="2">
         <f>A26</f>
@@ -5343,7 +5343,9 @@
       <c r="K26" s="31">
         <v>38</v>
       </c>
-      <c r="L26" s="31"/>
+      <c r="L26" s="53">
+        <v>7</v>
+      </c>
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -5361,7 +5363,9 @@
       <c r="D27" s="25">
         <v>4.2789999999999999</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="51">
+        <v>4.5029E-2</v>
+      </c>
       <c r="F27" s="17"/>
       <c r="H27" s="2">
         <f t="shared" ref="H27:I28" si="4">A27</f>
@@ -5378,7 +5382,9 @@
       <c r="K27" s="31">
         <v>38</v>
       </c>
-      <c r="L27" s="32"/>
+      <c r="L27" s="52">
+        <v>8</v>
+      </c>
       <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -5396,7 +5402,9 @@
       <c r="D28" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="51">
+        <v>6.4000000000000001E-2</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="H28" s="2">
         <f t="shared" si="4"/>
@@ -5413,7 +5421,9 @@
       <c r="K28" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="32"/>
+      <c r="L28" s="52">
+        <v>9</v>
+      </c>
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -5501,11 +5511,11 @@
         <f>results20241225!C31</f>
         <v>129</v>
       </c>
-      <c r="L31" s="43">
+      <c r="L31" s="42">
         <f>results20241225!D31</f>
         <v>43</v>
       </c>
-      <c r="M31" s="44">
+      <c r="M31" s="43">
         <f>results20241225!E31</f>
         <v>0.33333000000000002</v>
       </c>
@@ -5555,7 +5565,9 @@
       <c r="D33" s="19">
         <v>20.094000000000001</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="51">
+        <v>0.92348200000000003</v>
+      </c>
       <c r="F33" s="17"/>
       <c r="H33" s="2">
         <f>A33</f>
@@ -5572,7 +5584,9 @@
       <c r="K33" s="31">
         <v>456</v>
       </c>
-      <c r="L33" s="31"/>
+      <c r="L33" s="53">
+        <v>7</v>
+      </c>
       <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -5590,7 +5604,9 @@
       <c r="D34" s="25">
         <v>34.046999999999997</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="51">
+        <v>0.964171</v>
+      </c>
       <c r="F34" s="17"/>
       <c r="H34" s="2">
         <f t="shared" ref="H34:I35" si="5">A34</f>
@@ -5607,7 +5623,9 @@
       <c r="K34" s="31">
         <v>456</v>
       </c>
-      <c r="L34" s="32"/>
+      <c r="L34" s="52">
+        <v>7</v>
+      </c>
       <c r="M34" s="31"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -5625,7 +5643,9 @@
       <c r="D35" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="23"/>
+      <c r="E35" s="51">
+        <v>1.018993</v>
+      </c>
       <c r="F35" s="23"/>
       <c r="H35" s="2">
         <f t="shared" si="5"/>
@@ -5642,7 +5662,9 @@
       <c r="K35" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="32"/>
+      <c r="L35" s="52">
+        <v>9</v>
+      </c>
       <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -5726,11 +5748,11 @@
         <f>results20241225!C38</f>
         <v>119</v>
       </c>
-      <c r="L38" s="43">
+      <c r="L38" s="42">
         <f>results20241225!D38</f>
         <v>23</v>
       </c>
-      <c r="M38" s="44">
+      <c r="M38" s="43">
         <f>results20241225!E38</f>
         <v>0.12328</v>
       </c>
@@ -5780,7 +5802,9 @@
       <c r="D40" s="19">
         <v>0.65700000000000003</v>
       </c>
-      <c r="E40" s="17"/>
+      <c r="E40" s="51">
+        <v>6.9969000000000003E-2</v>
+      </c>
       <c r="F40" s="17"/>
       <c r="H40" s="2">
         <f>A40</f>
@@ -5797,7 +5821,9 @@
       <c r="K40" s="31">
         <v>39</v>
       </c>
-      <c r="L40" s="31"/>
+      <c r="L40" s="53">
+        <v>7</v>
+      </c>
       <c r="M40" s="31"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5815,7 +5841,9 @@
       <c r="D41" s="25">
         <v>1.216</v>
       </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="51">
+        <v>8.1031000000000006E-2</v>
+      </c>
       <c r="F41" s="17"/>
       <c r="H41" s="2">
         <f t="shared" ref="H41:I42" si="6">A41</f>
@@ -5832,7 +5860,9 @@
       <c r="K41" s="31">
         <v>40</v>
       </c>
-      <c r="L41" s="32"/>
+      <c r="L41" s="52">
+        <v>8</v>
+      </c>
       <c r="M41" s="31"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5850,7 +5880,9 @@
       <c r="D42" s="25">
         <v>42.253</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="51">
+        <v>0.11503099999999999</v>
+      </c>
       <c r="F42" s="23"/>
       <c r="H42" s="2">
         <f t="shared" si="6"/>
@@ -5867,7 +5899,9 @@
       <c r="K42" s="31">
         <v>42</v>
       </c>
-      <c r="L42" s="32"/>
+      <c r="L42" s="52">
+        <v>10</v>
+      </c>
       <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5951,11 +5985,11 @@
         <f>results20241225!C45</f>
         <v>2113</v>
       </c>
-      <c r="L45" s="43">
+      <c r="L45" s="42">
         <f>results20241225!D45</f>
         <v>74</v>
       </c>
-      <c r="M45" s="44">
+      <c r="M45" s="43">
         <f>results20241225!E45</f>
         <v>3.5020000000000003E-2</v>
       </c>
@@ -6005,7 +6039,9 @@
       <c r="D47" s="19">
         <v>206.13200000000001</v>
       </c>
-      <c r="E47" s="17"/>
+      <c r="E47" s="51">
+        <v>1.168026</v>
+      </c>
       <c r="F47" s="17"/>
       <c r="H47" s="2">
         <f>A47</f>
@@ -6022,7 +6058,9 @@
       <c r="K47" s="31">
         <v>742</v>
       </c>
-      <c r="L47" s="31"/>
+      <c r="L47" s="53">
+        <v>8</v>
+      </c>
       <c r="M47" s="31"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -6040,7 +6078,9 @@
       <c r="D48" s="25">
         <v>270.68900000000002</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="51">
+        <v>1.233514</v>
+      </c>
       <c r="F48" s="17"/>
       <c r="H48" s="2">
         <f t="shared" ref="H48:I49" si="7">A48</f>
@@ -6057,7 +6097,9 @@
       <c r="K48" s="31">
         <v>742</v>
       </c>
-      <c r="L48" s="32"/>
+      <c r="L48" s="52">
+        <v>8</v>
+      </c>
       <c r="M48" s="31"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -6075,7 +6117,9 @@
       <c r="D49" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="51">
+        <v>1.3051550000000001</v>
+      </c>
       <c r="F49" s="23"/>
       <c r="H49" s="2">
         <f t="shared" si="7"/>
@@ -6092,7 +6136,9 @@
       <c r="K49" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L49" s="32"/>
+      <c r="L49" s="52">
+        <v>28</v>
+      </c>
       <c r="M49" s="32"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -6176,11 +6222,11 @@
         <f>results20241225!C52</f>
         <v>2089</v>
       </c>
-      <c r="L52" s="43">
+      <c r="L52" s="42">
         <f>results20241225!D52</f>
         <v>51.5</v>
       </c>
-      <c r="M52" s="44">
+      <c r="M52" s="43">
         <f>results20241225!E52</f>
         <v>2.4639999999999999E-2</v>
       </c>
@@ -6230,7 +6276,9 @@
       <c r="D54" s="19">
         <v>101.15</v>
       </c>
-      <c r="E54" s="17"/>
+      <c r="E54" s="51">
+        <v>0.829129</v>
+      </c>
       <c r="F54" s="17"/>
       <c r="H54" s="2">
         <f>A54</f>
@@ -6247,7 +6295,9 @@
       <c r="K54" s="31">
         <v>553</v>
       </c>
-      <c r="L54" s="31"/>
+      <c r="L54" s="53">
+        <v>7</v>
+      </c>
       <c r="M54" s="31"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -6265,7 +6315,9 @@
       <c r="D55" s="25">
         <v>119.691</v>
       </c>
-      <c r="E55" s="23"/>
+      <c r="E55" s="51">
+        <v>1.060317</v>
+      </c>
       <c r="F55" s="17"/>
       <c r="H55" s="2">
         <f t="shared" ref="H55:I56" si="8">A55</f>
@@ -6282,7 +6334,9 @@
       <c r="K55" s="31">
         <v>571</v>
       </c>
-      <c r="L55" s="32"/>
+      <c r="L55" s="52">
+        <v>22</v>
+      </c>
       <c r="M55" s="31"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -6295,12 +6349,14 @@
       </c>
       <c r="C56" s="19">
         <f>results20241225!D56</f>
-        <v>11.85</v>
+        <v>10.724</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="23"/>
+      <c r="E56" s="51">
+        <v>1.38</v>
+      </c>
       <c r="F56" s="23"/>
       <c r="H56" s="2">
         <f t="shared" si="8"/>
@@ -6317,7 +6373,9 @@
       <c r="K56" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L56" s="32"/>
+      <c r="L56" s="52">
+        <v>40</v>
+      </c>
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -6401,11 +6459,11 @@
         <f>results20241225!C59</f>
         <v>871</v>
       </c>
-      <c r="L59" s="43">
+      <c r="L59" s="42">
         <f>results20241225!D59</f>
         <v>11.1</v>
       </c>
-      <c r="M59" s="44">
+      <c r="M59" s="43">
         <f>results20241225!E59</f>
         <v>1.2749999999999999E-2</v>
       </c>
@@ -6455,7 +6513,9 @@
       <c r="D61" s="19">
         <v>24.55</v>
       </c>
-      <c r="E61" s="17"/>
+      <c r="E61" s="51">
+        <v>1.689084</v>
+      </c>
       <c r="F61" s="17"/>
       <c r="H61" s="2">
         <f>A61</f>
@@ -6472,7 +6532,9 @@
       <c r="K61" s="31">
         <v>364</v>
       </c>
-      <c r="L61" s="31"/>
+      <c r="L61" s="53">
+        <v>53</v>
+      </c>
       <c r="M61" s="31"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -6490,7 +6552,9 @@
       <c r="D62" s="25">
         <v>149.74</v>
       </c>
-      <c r="E62" s="23"/>
+      <c r="E62" s="51">
+        <v>21.462869000000001</v>
+      </c>
       <c r="F62" s="17"/>
       <c r="H62" s="2">
         <f t="shared" ref="H62:I63" si="9">A62</f>
@@ -6507,7 +6571,9 @@
       <c r="K62" s="31">
         <v>378</v>
       </c>
-      <c r="L62" s="32"/>
+      <c r="L62" s="52">
+        <v>300</v>
+      </c>
       <c r="M62" s="31"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -6525,7 +6591,9 @@
       <c r="D63" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="23"/>
+      <c r="E63" s="51">
+        <v>28.848333</v>
+      </c>
       <c r="F63" s="23"/>
       <c r="H63" s="2">
         <f t="shared" si="9"/>
@@ -6542,7 +6610,9 @@
       <c r="K63" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L63" s="32"/>
+      <c r="L63" s="52">
+        <v>339</v>
+      </c>
       <c r="M63" s="32"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -6622,11 +6692,11 @@
         <f>results20241225!C66</f>
         <v>943</v>
       </c>
-      <c r="L66" s="43">
+      <c r="L66" s="42">
         <f>results20241225!D66</f>
         <v>40.6</v>
       </c>
-      <c r="M66" s="44">
+      <c r="M66" s="43">
         <f>results20241225!E66</f>
         <v>4.3060000000000001E-2</v>
       </c>
@@ -6672,7 +6742,9 @@
       <c r="D68" s="19">
         <v>63.35</v>
       </c>
-      <c r="E68" s="17"/>
+      <c r="E68" s="51">
+        <v>10.468302</v>
+      </c>
       <c r="F68" s="17"/>
       <c r="H68" s="2">
         <f>A68</f>
@@ -6689,7 +6761,9 @@
       <c r="K68" s="31">
         <v>1557</v>
       </c>
-      <c r="L68" s="31"/>
+      <c r="L68" s="53">
+        <v>358</v>
+      </c>
       <c r="M68" s="31"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -6707,7 +6781,9 @@
       <c r="D69" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="23"/>
+      <c r="E69" s="51">
+        <v>101.062152</v>
+      </c>
       <c r="F69" s="17"/>
       <c r="H69" s="2">
         <f t="shared" ref="H69:I70" si="10">A69</f>
@@ -6724,7 +6800,9 @@
       <c r="K69" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L69" s="32"/>
+      <c r="L69" s="52">
+        <v>1428</v>
+      </c>
       <c r="M69" s="31"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -6742,7 +6820,9 @@
       <c r="D70" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="51">
+        <v>210.931524</v>
+      </c>
       <c r="F70" s="23"/>
       <c r="H70" s="2">
         <f t="shared" si="10"/>
@@ -6759,7 +6839,9 @@
       <c r="K70" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L70" s="32"/>
+      <c r="L70" s="52">
+        <v>1658</v>
+      </c>
       <c r="M70" s="32"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6843,11 +6925,11 @@
         <f>results20241225!C73</f>
         <v>2160</v>
       </c>
-      <c r="L73" s="43">
+      <c r="L73" s="42">
         <f>results20241225!D73</f>
         <v>18.12</v>
       </c>
-      <c r="M73" s="44">
+      <c r="M73" s="43">
         <f>results20241225!E73</f>
         <v>8.3876000000000003E-3</v>
       </c>
@@ -6897,7 +6979,9 @@
       <c r="D75" s="19">
         <v>8.5500000000000007</v>
       </c>
-      <c r="E75" s="17"/>
+      <c r="E75" s="51">
+        <v>0.14203099999999999</v>
+      </c>
       <c r="F75" s="17"/>
       <c r="H75" s="2">
         <f>A75</f>
@@ -6914,7 +6998,9 @@
       <c r="K75" s="31">
         <v>37</v>
       </c>
-      <c r="L75" s="31"/>
+      <c r="L75" s="53">
+        <v>12</v>
+      </c>
       <c r="M75" s="31"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -6932,7 +7018,9 @@
       <c r="D76" s="25">
         <v>13.007999999999999</v>
       </c>
-      <c r="E76" s="23"/>
+      <c r="E76" s="51">
+        <v>0.76899700000000004</v>
+      </c>
       <c r="F76" s="17"/>
       <c r="H76" s="2">
         <f t="shared" ref="H76:I77" si="11">A76</f>
@@ -6949,7 +7037,9 @@
       <c r="K76" s="31">
         <v>39</v>
       </c>
-      <c r="L76" s="32"/>
+      <c r="L76" s="52">
+        <v>24</v>
+      </c>
       <c r="M76" s="31"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -6967,7 +7057,9 @@
       <c r="D77" s="25">
         <v>158.49600000000001</v>
       </c>
-      <c r="E77" s="23"/>
+      <c r="E77" s="51">
+        <v>1.9221200000000001</v>
+      </c>
       <c r="F77" s="23"/>
       <c r="H77" s="2">
         <f t="shared" si="11"/>
@@ -6984,7 +7076,9 @@
       <c r="K77" s="31">
         <v>60</v>
       </c>
-      <c r="L77" s="32"/>
+      <c r="L77" s="52">
+        <v>36</v>
+      </c>
       <c r="M77" s="32"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -7068,11 +7162,11 @@
         <f>results20241225!C80</f>
         <v>20</v>
       </c>
-      <c r="L80" s="43">
+      <c r="L80" s="42">
         <f>results20241225!D80</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="M80" s="44">
+      <c r="M80" s="43">
         <f>results20241225!E80</f>
         <v>0.80584</v>
       </c>
@@ -7122,7 +7216,9 @@
       <c r="D82" s="19">
         <v>6.58</v>
       </c>
-      <c r="E82" s="17"/>
+      <c r="E82" s="51">
+        <v>1.1655260000000001</v>
+      </c>
       <c r="F82" s="17"/>
       <c r="H82" s="2">
         <f>A82</f>
@@ -7139,7 +7235,9 @@
       <c r="K82" s="31">
         <v>202</v>
       </c>
-      <c r="L82" s="31"/>
+      <c r="L82" s="53">
+        <v>49</v>
+      </c>
       <c r="M82" s="31"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -7157,7 +7255,9 @@
       <c r="D83" s="25">
         <v>23.19</v>
       </c>
-      <c r="E83" s="23"/>
+      <c r="E83" s="51">
+        <v>2.5217540000000001</v>
+      </c>
       <c r="F83" s="17"/>
       <c r="H83" s="2">
         <f t="shared" ref="H83:I84" si="12">A83</f>
@@ -7174,7 +7274,9 @@
       <c r="K83" s="31">
         <v>222</v>
       </c>
-      <c r="L83" s="32"/>
+      <c r="L83" s="52">
+        <v>49</v>
+      </c>
       <c r="M83" s="31"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -7192,7 +7294,9 @@
       <c r="D84" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E84" s="23"/>
+      <c r="E84" s="51">
+        <v>9.6466209999999997</v>
+      </c>
       <c r="F84" s="23"/>
       <c r="H84" s="2">
         <f t="shared" si="12"/>
@@ -7209,7 +7313,9 @@
       <c r="K84" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L84" s="32"/>
+      <c r="L84" s="52">
+        <v>50</v>
+      </c>
       <c r="M84" s="32"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -7248,7 +7354,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>45</v>
@@ -7270,7 +7376,7 @@
         <v>3.3645000000000001E-5</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>45</v>
@@ -7283,11 +7389,11 @@
         <f>results20241225!C87</f>
         <v>5267656</v>
       </c>
-      <c r="L87" s="43">
+      <c r="L87" s="42">
         <f>results20241225!D87</f>
         <v>177.2</v>
       </c>
-      <c r="M87" s="44">
+      <c r="M87" s="43">
         <f>results20241225!E87</f>
         <v>3.3645000000000001E-5</v>
       </c>
@@ -7338,9 +7444,11 @@
         <f>results20241225!D89</f>
         <v>323.22000000000003</v>
       </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="17">
-        <v>122.88</v>
+      <c r="D89" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="51">
+        <v>117.098541</v>
       </c>
       <c r="F89" s="17"/>
       <c r="H89" s="2">
@@ -7351,13 +7459,13 @@
         <f>B89</f>
         <v>91</v>
       </c>
-      <c r="J89" s="50">
+      <c r="J89" s="46">
         <f>results20241225!J89</f>
         <v>1512</v>
       </c>
       <c r="K89" s="31"/>
       <c r="L89" s="31">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="M89" s="31"/>
     </row>
@@ -7373,8 +7481,12 @@
         <f>results20241225!D90</f>
         <v>665.3</v>
       </c>
-      <c r="D90" s="25"/>
-      <c r="E90" s="23"/>
+      <c r="D90" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="51">
+        <v>211.165368</v>
+      </c>
       <c r="F90" s="17"/>
       <c r="H90" s="2">
         <f t="shared" ref="H90:H91" si="13">A90</f>
@@ -7384,12 +7496,14 @@
         <f t="shared" ref="I90:I91" si="14">B90</f>
         <v>523</v>
       </c>
-      <c r="J90" s="50">
+      <c r="J90" s="46">
         <f>results20241225!J90</f>
         <v>1934</v>
       </c>
       <c r="K90" s="31"/>
-      <c r="L90" s="32"/>
+      <c r="L90" s="52">
+        <v>2957</v>
+      </c>
       <c r="M90" s="31"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -7404,8 +7518,10 @@
         <f>results20241225!D91</f>
         <v>1000+++</v>
       </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="23"/>
+      <c r="D91" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="25"/>
       <c r="F91" s="23"/>
       <c r="H91" s="2">
         <f t="shared" si="13"/>
@@ -7428,243 +7544,218 @@
     <mergeCell ref="H1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C7 E5:F7 C8:F8">
-    <cfRule type="cellIs" dxfId="47" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="87" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14 E12:F14 C15:F15">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C22">
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15 C12:C14 E12:F14">
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+  <conditionalFormatting sqref="C68:C70">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+      <formula>"1000+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C26:F29">
-    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:F36">
-    <cfRule type="cellIs" dxfId="43" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F43">
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F50">
-    <cfRule type="cellIs" dxfId="41" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="21" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:F57">
-    <cfRule type="cellIs" dxfId="40" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:F62 C64:F64 C63 E63:F63">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68:F68 C71:F71 E69:F70">
-    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
+  <conditionalFormatting sqref="C61:F64">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:F78">
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:F83 C84 E84:F84">
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+  <conditionalFormatting sqref="C82:F84">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:C91 E89:F91">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68:F68 E69:F70 C71:F71">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J22">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J28">
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J35">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:J42">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:J49">
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:J56">
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J63">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:J70">
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75:J77">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82:J84">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>"300+++"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89:J90">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:M15">
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7 J8:M8 J15:M15 K19:M21 J22:M22 J29:M29 J36:M36 J43:M43 J50:M50 J57:M57 J64:M64 J71:M71 J78:M78 K12:M14">
-    <cfRule type="cellIs" dxfId="23" priority="57" operator="equal">
+  <conditionalFormatting sqref="J91:M91">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:M7 J8:M8 K12:M14 J15:M15 J22:M22 J29:M29 J36:M36 J43:M43 J50:M50 J57:M57 J64:M64 J71:M71 J78:M78 K19:M21">
+    <cfRule type="cellIs" dxfId="13" priority="60" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:M28">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:M35">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:M42">
-    <cfRule type="cellIs" dxfId="20" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="57" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:M49">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:M56">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:M62 L63:M63">
-    <cfRule type="cellIs" dxfId="17" priority="51" operator="equal">
+  <conditionalFormatting sqref="K61:M63">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:M68 L69:M70">
-    <cfRule type="cellIs" dxfId="16" priority="50" operator="equal">
+  <conditionalFormatting sqref="K68:M70">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:M77">
-    <cfRule type="cellIs" dxfId="15" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="52" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:M83 L84:M84">
-    <cfRule type="cellIs" dxfId="14" priority="48" operator="equal">
+  <conditionalFormatting sqref="K82:M84">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+  <conditionalFormatting sqref="K89:M90">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"n/a"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+  <conditionalFormatting sqref="D90">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"n/a"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"n/a"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"n/a"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C70">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="D91">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89:F90 C91 E91:F91">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J89:J90">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K89:M90 L91:M91">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>"n/a"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K91">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"n/a"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"1000+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/datasets/Experiments/output/results20241230.xlsx
+++ b/Python/datasets/Experiments/output/results20241230.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E33E1BC-8E02-49AF-992C-6B53F040B1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB78047-E439-46E9-B5EC-8D3858F27970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2220" yWindow="1905" windowWidth="21600" windowHeight="10290" activeTab="1" xr2:uid="{6035C6A1-F9DE-48BD-AD3B-5A2CA49F8B6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6035C6A1-F9DE-48BD-AD3B-5A2CA49F8B6B}"/>
   </bookViews>
   <sheets>
     <sheet name="results20241225" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="50">
   <si>
     <t>Dataset</t>
   </si>
@@ -900,6 +900,11 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="40" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,11 +917,6 @@
     <xf numFmtId="0" fontId="18" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="19" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Έμφαση1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,37 +963,7 @@
     <cellStyle name="Τίτλος" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Υπολογισμός" xfId="11" builtinId="22" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1747,20 +1717,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4380,7 +4350,7 @@
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"1000+++"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4429,8 +4399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F28AEF2-AE5E-4CBE-A1AE-68482664036D}">
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43:V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4445,22 +4415,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="H1" s="48" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="H1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
@@ -4569,14 +4539,22 @@
       <c r="I4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="J4" s="26" t="str">
+        <f>C4</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K4" s="26" t="str">
+        <f t="shared" ref="K4:M4" si="0">D4</f>
+        <v>BTK</v>
+      </c>
+      <c r="L4" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>negFIN</v>
+      </c>
+      <c r="M4" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -4593,7 +4571,7 @@
       <c r="D5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="47">
         <v>4.2348489999999996</v>
       </c>
       <c r="F5" s="17"/>
@@ -4632,16 +4610,16 @@
       <c r="D6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="47">
         <v>10.683597000000001</v>
       </c>
       <c r="F6" s="17"/>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H7" si="0">A6</f>
+        <f t="shared" ref="H6:H7" si="1">A6</f>
         <v>1001</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I7" si="1">B6</f>
+        <f t="shared" ref="I6:I7" si="2">B6</f>
         <v>917</v>
       </c>
       <c r="J6" s="27">
@@ -4651,7 +4629,7 @@
       <c r="K6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="48">
         <v>238</v>
       </c>
       <c r="M6" s="31"/>
@@ -4671,16 +4649,16 @@
       <c r="D7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="47">
         <v>57.614651000000002</v>
       </c>
       <c r="F7" s="23"/>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10007</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3481</v>
       </c>
       <c r="J7" s="27">
@@ -4690,7 +4668,7 @@
       <c r="K7" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="48">
         <v>758</v>
       </c>
       <c r="M7" s="32"/>
@@ -4802,7 +4780,9 @@
       <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="H11" s="2" t="s">
         <v>21</v>
@@ -4810,14 +4790,22 @@
       <c r="I11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="J11" s="26" t="str">
+        <f>C11</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K11" s="26" t="str">
+        <f t="shared" ref="K11" si="3">D11</f>
+        <v>BTK</v>
+      </c>
+      <c r="L11" s="26" t="str">
+        <f t="shared" ref="L11" si="4">E11</f>
+        <v>negFIN</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" ref="M11" si="5">F11</f>
+        <v>0</v>
+      </c>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -4835,7 +4823,7 @@
       <c r="D12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="47">
         <v>0.46200200000000002</v>
       </c>
       <c r="F12" s="17"/>
@@ -4854,7 +4842,7 @@
       <c r="K12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="49">
         <v>12</v>
       </c>
       <c r="M12" s="31"/>
@@ -4875,16 +4863,16 @@
       <c r="D13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="47">
         <v>3.5187219999999999</v>
       </c>
       <c r="F13" s="17"/>
       <c r="H13" s="2">
-        <f t="shared" ref="H13:I14" si="2">A13</f>
+        <f t="shared" ref="H13:I14" si="6">A13</f>
         <v>1001</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>509</v>
       </c>
       <c r="J13" s="27">
@@ -4894,7 +4882,7 @@
       <c r="K13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="48">
         <v>72</v>
       </c>
       <c r="M13" s="31"/>
@@ -4915,16 +4903,16 @@
       <c r="D14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="47">
         <v>40.364441999999997</v>
       </c>
       <c r="F14" s="23"/>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10154</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>758</v>
       </c>
       <c r="J14" s="27">
@@ -4934,7 +4922,7 @@
       <c r="K14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="48">
         <v>341</v>
       </c>
       <c r="M14" s="32"/>
@@ -5017,20 +5005,20 @@
       <c r="I17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="38">
-        <f>results20241225!B17</f>
+      <c r="J17" s="26">
+        <f>C17</f>
         <v>340183</v>
       </c>
-      <c r="K17" s="38">
-        <f>results20241225!C17</f>
+      <c r="K17" s="26">
+        <f t="shared" ref="K17:K18" si="7">D17</f>
         <v>469</v>
       </c>
-      <c r="L17" s="42">
-        <f>results20241225!D17</f>
+      <c r="L17" s="26">
+        <f t="shared" ref="L17:L18" si="8">E17</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="M17" s="43">
-        <f>results20241225!E17</f>
+      <c r="M17" s="26">
+        <f t="shared" ref="M17:M18" si="9">F17</f>
         <v>7.4219999999999994E-2</v>
       </c>
     </row>
@@ -5047,7 +5035,9 @@
       <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>21</v>
@@ -5055,14 +5045,22 @@
       <c r="I18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="J18" s="26" t="str">
+        <f>C18</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K18" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>BTK</v>
+      </c>
+      <c r="L18" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v>negFIN</v>
+      </c>
+      <c r="M18" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -5079,7 +5077,7 @@
       <c r="D19" s="19">
         <v>243.19</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="47">
         <v>3.8042539999999998</v>
       </c>
       <c r="F19" s="17"/>
@@ -5118,16 +5116,16 @@
       <c r="D20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="47">
         <v>4.2153299999999998</v>
       </c>
       <c r="F20" s="17"/>
       <c r="H20" s="2">
-        <f t="shared" ref="H20:I21" si="3">A20</f>
+        <f t="shared" ref="H20:I21" si="10">A20</f>
         <v>1000</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>986</v>
       </c>
       <c r="J20" s="27">
@@ -5137,7 +5135,7 @@
       <c r="K20" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L20" s="48">
         <v>12</v>
       </c>
       <c r="M20" s="31"/>
@@ -5157,16 +5155,16 @@
       <c r="D21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="47">
         <v>5.6064639999999999</v>
       </c>
       <c r="F21" s="18"/>
       <c r="H21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>9137</v>
       </c>
       <c r="J21" s="27">
@@ -5176,7 +5174,7 @@
       <c r="K21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="52">
+      <c r="L21" s="48">
         <v>79</v>
       </c>
       <c r="M21" s="32"/>
@@ -5292,7 +5290,9 @@
       <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="H25" s="2" t="s">
         <v>21</v>
@@ -5300,14 +5300,22 @@
       <c r="I25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="J25" s="26" t="str">
+        <f>C25</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K25" s="26" t="str">
+        <f t="shared" ref="K25" si="11">D25</f>
+        <v>BTK</v>
+      </c>
+      <c r="L25" s="26" t="str">
+        <f t="shared" ref="L25" si="12">E25</f>
+        <v>negFIN</v>
+      </c>
+      <c r="M25" s="26">
+        <f t="shared" ref="M25" si="13">F25</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -5324,7 +5332,7 @@
       <c r="D26" s="19">
         <v>0.68</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="47">
         <v>4.0998E-2</v>
       </c>
       <c r="F26" s="17"/>
@@ -5343,7 +5351,7 @@
       <c r="K26" s="31">
         <v>38</v>
       </c>
-      <c r="L26" s="53">
+      <c r="L26" s="49">
         <v>7</v>
       </c>
       <c r="M26" s="31"/>
@@ -5363,16 +5371,16 @@
       <c r="D27" s="25">
         <v>4.2789999999999999</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="47">
         <v>4.5029E-2</v>
       </c>
       <c r="F27" s="17"/>
       <c r="H27" s="2">
-        <f t="shared" ref="H27:I28" si="4">A27</f>
+        <f t="shared" ref="H27:I28" si="14">A27</f>
         <v>1001</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>247</v>
       </c>
       <c r="J27" s="27">
@@ -5382,7 +5390,7 @@
       <c r="K27" s="31">
         <v>38</v>
       </c>
-      <c r="L27" s="52">
+      <c r="L27" s="48">
         <v>8</v>
       </c>
       <c r="M27" s="31"/>
@@ -5402,16 +5410,16 @@
       <c r="D28" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="47">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="F28" s="23"/>
       <c r="H28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>10028</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>556</v>
       </c>
       <c r="J28" s="27">
@@ -5421,7 +5429,7 @@
       <c r="K28" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="48">
         <v>9</v>
       </c>
       <c r="M28" s="32"/>
@@ -5533,7 +5541,9 @@
       <c r="D32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="H32" s="2" t="s">
         <v>21</v>
@@ -5541,14 +5551,22 @@
       <c r="I32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="J32" s="26" t="str">
+        <f>C32</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K32" s="26" t="str">
+        <f t="shared" ref="K32" si="15">D32</f>
+        <v>BTK</v>
+      </c>
+      <c r="L32" s="26" t="str">
+        <f t="shared" ref="L32" si="16">E32</f>
+        <v>negFIN</v>
+      </c>
+      <c r="M32" s="26">
+        <f t="shared" ref="M32" si="17">F32</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -5565,7 +5583,7 @@
       <c r="D33" s="19">
         <v>20.094000000000001</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="47">
         <v>0.92348200000000003</v>
       </c>
       <c r="F33" s="17"/>
@@ -5584,7 +5602,7 @@
       <c r="K33" s="31">
         <v>456</v>
       </c>
-      <c r="L33" s="53">
+      <c r="L33" s="49">
         <v>7</v>
       </c>
       <c r="M33" s="31"/>
@@ -5604,16 +5622,16 @@
       <c r="D34" s="25">
         <v>34.046999999999997</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="47">
         <v>0.964171</v>
       </c>
       <c r="F34" s="17"/>
       <c r="H34" s="2">
-        <f t="shared" ref="H34:I35" si="5">A34</f>
+        <f t="shared" ref="H34:I35" si="18">A34</f>
         <v>1003</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>423</v>
       </c>
       <c r="J34" s="27">
@@ -5623,7 +5641,7 @@
       <c r="K34" s="31">
         <v>456</v>
       </c>
-      <c r="L34" s="52">
+      <c r="L34" s="48">
         <v>7</v>
       </c>
       <c r="M34" s="31"/>
@@ -5643,16 +5661,16 @@
       <c r="D35" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="47">
         <v>1.018993</v>
       </c>
       <c r="F35" s="23"/>
       <c r="H35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>10015</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1605</v>
       </c>
       <c r="J35" s="27">
@@ -5662,7 +5680,7 @@
       <c r="K35" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="52">
+      <c r="L35" s="48">
         <v>9</v>
       </c>
       <c r="M35" s="32"/>
@@ -5770,7 +5788,9 @@
       <c r="D39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="H39" s="2" t="s">
         <v>21</v>
@@ -5778,14 +5798,22 @@
       <c r="I39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="J39" s="26" t="str">
+        <f>C39</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K39" s="26" t="str">
+        <f t="shared" ref="K39" si="19">D39</f>
+        <v>BTK</v>
+      </c>
+      <c r="L39" s="26" t="str">
+        <f t="shared" ref="L39" si="20">E39</f>
+        <v>negFIN</v>
+      </c>
+      <c r="M39" s="26">
+        <f t="shared" ref="M39" si="21">F39</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -5802,7 +5830,7 @@
       <c r="D40" s="19">
         <v>0.65700000000000003</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="47">
         <v>6.9969000000000003E-2</v>
       </c>
       <c r="F40" s="17"/>
@@ -5821,7 +5849,7 @@
       <c r="K40" s="31">
         <v>39</v>
       </c>
-      <c r="L40" s="53">
+      <c r="L40" s="49">
         <v>7</v>
       </c>
       <c r="M40" s="31"/>
@@ -5841,16 +5869,16 @@
       <c r="D41" s="25">
         <v>1.216</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="47">
         <v>8.1031000000000006E-2</v>
       </c>
       <c r="F41" s="17"/>
       <c r="H41" s="2">
-        <f t="shared" ref="H41:I42" si="6">A41</f>
+        <f t="shared" ref="H41:I42" si="22">A41</f>
         <v>1008</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>164</v>
       </c>
       <c r="J41" s="27">
@@ -5860,7 +5888,7 @@
       <c r="K41" s="31">
         <v>40</v>
       </c>
-      <c r="L41" s="52">
+      <c r="L41" s="48">
         <v>8</v>
       </c>
       <c r="M41" s="31"/>
@@ -5880,16 +5908,16 @@
       <c r="D42" s="25">
         <v>42.253</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="47">
         <v>0.11503099999999999</v>
       </c>
       <c r="F42" s="23"/>
       <c r="H42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>10011</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>368</v>
       </c>
       <c r="J42" s="27">
@@ -5899,7 +5927,7 @@
       <c r="K42" s="31">
         <v>42</v>
       </c>
-      <c r="L42" s="52">
+      <c r="L42" s="48">
         <v>10</v>
       </c>
       <c r="M42" s="32"/>
@@ -6007,7 +6035,9 @@
       <c r="D46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="H46" s="2" t="s">
         <v>21</v>
@@ -6015,14 +6045,22 @@
       <c r="I46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+      <c r="J46" s="26" t="str">
+        <f>C46</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K46" s="26" t="str">
+        <f t="shared" ref="K46" si="23">D46</f>
+        <v>BTK</v>
+      </c>
+      <c r="L46" s="26" t="str">
+        <f t="shared" ref="L46" si="24">E46</f>
+        <v>negFIN</v>
+      </c>
+      <c r="M46" s="26">
+        <f t="shared" ref="M46" si="25">F46</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -6039,7 +6077,7 @@
       <c r="D47" s="19">
         <v>206.13200000000001</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="47">
         <v>1.168026</v>
       </c>
       <c r="F47" s="17"/>
@@ -6058,7 +6096,7 @@
       <c r="K47" s="31">
         <v>742</v>
       </c>
-      <c r="L47" s="53">
+      <c r="L47" s="49">
         <v>8</v>
       </c>
       <c r="M47" s="31"/>
@@ -6078,16 +6116,16 @@
       <c r="D48" s="25">
         <v>270.68900000000002</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="47">
         <v>1.233514</v>
       </c>
       <c r="F48" s="17"/>
       <c r="H48" s="2">
-        <f t="shared" ref="H48:I49" si="7">A48</f>
+        <f t="shared" ref="H48:I49" si="26">A48</f>
         <v>1000</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>511</v>
       </c>
       <c r="J48" s="27">
@@ -6097,7 +6135,7 @@
       <c r="K48" s="31">
         <v>742</v>
       </c>
-      <c r="L48" s="52">
+      <c r="L48" s="48">
         <v>8</v>
       </c>
       <c r="M48" s="31"/>
@@ -6117,16 +6155,16 @@
       <c r="D49" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="47">
         <v>1.3051550000000001</v>
       </c>
       <c r="F49" s="23"/>
       <c r="H49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>10002</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>2444</v>
       </c>
       <c r="J49" s="27">
@@ -6136,7 +6174,7 @@
       <c r="K49" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L49" s="52">
+      <c r="L49" s="48">
         <v>28</v>
       </c>
       <c r="M49" s="32"/>
@@ -6244,7 +6282,9 @@
       <c r="D53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="H53" s="2" t="s">
         <v>21</v>
@@ -6252,14 +6292,22 @@
       <c r="I53" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+      <c r="J53" s="26" t="str">
+        <f>C53</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K53" s="26" t="str">
+        <f t="shared" ref="K53" si="27">D53</f>
+        <v>BTK</v>
+      </c>
+      <c r="L53" s="26" t="str">
+        <f t="shared" ref="L53" si="28">E53</f>
+        <v>negFIN</v>
+      </c>
+      <c r="M53" s="26">
+        <f t="shared" ref="M53" si="29">F53</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -6276,7 +6324,7 @@
       <c r="D54" s="19">
         <v>101.15</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="47">
         <v>0.829129</v>
       </c>
       <c r="F54" s="17"/>
@@ -6295,7 +6343,7 @@
       <c r="K54" s="31">
         <v>553</v>
       </c>
-      <c r="L54" s="53">
+      <c r="L54" s="49">
         <v>7</v>
       </c>
       <c r="M54" s="31"/>
@@ -6315,16 +6363,16 @@
       <c r="D55" s="25">
         <v>119.691</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="47">
         <v>1.060317</v>
       </c>
       <c r="F55" s="17"/>
       <c r="H55" s="2">
-        <f t="shared" ref="H55:I56" si="8">A55</f>
+        <f t="shared" ref="H55:I56" si="30">A55</f>
         <v>1003</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>356</v>
       </c>
       <c r="J55" s="27">
@@ -6334,7 +6382,7 @@
       <c r="K55" s="31">
         <v>571</v>
       </c>
-      <c r="L55" s="52">
+      <c r="L55" s="48">
         <v>22</v>
       </c>
       <c r="M55" s="31"/>
@@ -6354,16 +6402,16 @@
       <c r="D56" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="47">
         <v>1.38</v>
       </c>
       <c r="F56" s="23"/>
       <c r="H56" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>10000</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>1286</v>
       </c>
       <c r="J56" s="27">
@@ -6373,7 +6421,7 @@
       <c r="K56" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L56" s="52">
+      <c r="L56" s="48">
         <v>40</v>
       </c>
       <c r="M56" s="32"/>
@@ -6481,7 +6529,9 @@
       <c r="D60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="H60" s="2" t="s">
         <v>21</v>
@@ -6489,14 +6539,22 @@
       <c r="I60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
+      <c r="J60" s="26" t="str">
+        <f>C60</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K60" s="26" t="str">
+        <f t="shared" ref="K60" si="31">D60</f>
+        <v>BTK</v>
+      </c>
+      <c r="L60" s="26" t="str">
+        <f t="shared" ref="L60" si="32">E60</f>
+        <v>negFIN</v>
+      </c>
+      <c r="M60" s="26">
+        <f t="shared" ref="M60" si="33">F60</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -6513,7 +6571,7 @@
       <c r="D61" s="19">
         <v>24.55</v>
       </c>
-      <c r="E61" s="51">
+      <c r="E61" s="47">
         <v>1.689084</v>
       </c>
       <c r="F61" s="17"/>
@@ -6532,7 +6590,7 @@
       <c r="K61" s="31">
         <v>364</v>
       </c>
-      <c r="L61" s="53">
+      <c r="L61" s="49">
         <v>53</v>
       </c>
       <c r="M61" s="31"/>
@@ -6552,16 +6610,16 @@
       <c r="D62" s="25">
         <v>149.74</v>
       </c>
-      <c r="E62" s="51">
+      <c r="E62" s="47">
         <v>21.462869000000001</v>
       </c>
       <c r="F62" s="17"/>
       <c r="H62" s="2">
-        <f t="shared" ref="H62:I63" si="9">A62</f>
+        <f t="shared" ref="H62:I63" si="34">A62</f>
         <v>1001</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>660</v>
       </c>
       <c r="J62" s="27">
@@ -6571,7 +6629,7 @@
       <c r="K62" s="31">
         <v>378</v>
       </c>
-      <c r="L62" s="52">
+      <c r="L62" s="48">
         <v>300</v>
       </c>
       <c r="M62" s="31"/>
@@ -6591,16 +6649,16 @@
       <c r="D63" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="51">
+      <c r="E63" s="47">
         <v>28.848333</v>
       </c>
       <c r="F63" s="23"/>
       <c r="H63" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>10075</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="34"/>
         <v>953</v>
       </c>
       <c r="J63" s="27">
@@ -6610,7 +6668,7 @@
       <c r="K63" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L63" s="52">
+      <c r="L63" s="48">
         <v>339</v>
       </c>
       <c r="M63" s="32"/>
@@ -6712,20 +6770,30 @@
       <c r="D67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="H67" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+      <c r="J67" s="26" t="str">
+        <f>C67</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K67" s="26" t="str">
+        <f t="shared" ref="K67" si="35">D67</f>
+        <v>BTK</v>
+      </c>
+      <c r="L67" s="26" t="str">
+        <f t="shared" ref="L67" si="36">E67</f>
+        <v>negFIN</v>
+      </c>
+      <c r="M67" s="26">
+        <f t="shared" ref="M67" si="37">F67</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -6742,7 +6810,7 @@
       <c r="D68" s="19">
         <v>63.35</v>
       </c>
-      <c r="E68" s="51">
+      <c r="E68" s="47">
         <v>10.468302</v>
       </c>
       <c r="F68" s="17"/>
@@ -6761,7 +6829,7 @@
       <c r="K68" s="31">
         <v>1557</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="49">
         <v>358</v>
       </c>
       <c r="M68" s="31"/>
@@ -6781,16 +6849,16 @@
       <c r="D69" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="51">
+      <c r="E69" s="47">
         <v>101.062152</v>
       </c>
       <c r="F69" s="17"/>
       <c r="H69" s="2">
-        <f t="shared" ref="H69:I70" si="10">A69</f>
+        <f t="shared" ref="H69:I70" si="38">A69</f>
         <v>1000</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>865</v>
       </c>
       <c r="J69" s="27">
@@ -6800,7 +6868,7 @@
       <c r="K69" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L69" s="52">
+      <c r="L69" s="48">
         <v>1428</v>
       </c>
       <c r="M69" s="31"/>
@@ -6820,16 +6888,16 @@
       <c r="D70" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="51">
+      <c r="E70" s="47">
         <v>210.931524</v>
       </c>
       <c r="F70" s="23"/>
       <c r="H70" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>10018</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>2117</v>
       </c>
       <c r="J70" s="27">
@@ -6839,7 +6907,7 @@
       <c r="K70" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L70" s="52">
+      <c r="L70" s="48">
         <v>1658</v>
       </c>
       <c r="M70" s="32"/>
@@ -6947,7 +7015,9 @@
       <c r="D74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="H74" s="2" t="s">
         <v>21</v>
@@ -6955,14 +7025,22 @@
       <c r="I74" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="J74" s="26" t="str">
+        <f>C74</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K74" s="26" t="str">
+        <f t="shared" ref="K74" si="39">D74</f>
+        <v>BTK</v>
+      </c>
+      <c r="L74" s="26" t="str">
+        <f t="shared" ref="L74" si="40">E74</f>
+        <v>negFIN</v>
+      </c>
+      <c r="M74" s="26">
+        <f t="shared" ref="M74" si="41">F74</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -6979,7 +7057,7 @@
       <c r="D75" s="19">
         <v>8.5500000000000007</v>
       </c>
-      <c r="E75" s="51">
+      <c r="E75" s="47">
         <v>0.14203099999999999</v>
       </c>
       <c r="F75" s="17"/>
@@ -6998,7 +7076,7 @@
       <c r="K75" s="31">
         <v>37</v>
       </c>
-      <c r="L75" s="53">
+      <c r="L75" s="49">
         <v>12</v>
       </c>
       <c r="M75" s="31"/>
@@ -7018,16 +7096,16 @@
       <c r="D76" s="25">
         <v>13.007999999999999</v>
       </c>
-      <c r="E76" s="51">
+      <c r="E76" s="47">
         <v>0.76899700000000004</v>
       </c>
       <c r="F76" s="17"/>
       <c r="H76" s="2">
-        <f t="shared" ref="H76:I77" si="11">A76</f>
+        <f t="shared" ref="H76:I77" si="42">A76</f>
         <v>1025</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>143</v>
       </c>
       <c r="J76" s="27">
@@ -7037,7 +7115,7 @@
       <c r="K76" s="31">
         <v>39</v>
       </c>
-      <c r="L76" s="52">
+      <c r="L76" s="48">
         <v>24</v>
       </c>
       <c r="M76" s="31"/>
@@ -7057,16 +7135,16 @@
       <c r="D77" s="25">
         <v>158.49600000000001</v>
       </c>
-      <c r="E77" s="51">
+      <c r="E77" s="47">
         <v>1.9221200000000001</v>
       </c>
       <c r="F77" s="23"/>
       <c r="H77" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>11257</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="42"/>
         <v>168</v>
       </c>
       <c r="J77" s="27">
@@ -7076,7 +7154,7 @@
       <c r="K77" s="31">
         <v>60</v>
       </c>
-      <c r="L77" s="52">
+      <c r="L77" s="48">
         <v>36</v>
       </c>
       <c r="M77" s="32"/>
@@ -7184,7 +7262,9 @@
       <c r="D81" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="H81" s="2" t="s">
         <v>21</v>
@@ -7192,14 +7272,22 @@
       <c r="I81" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
+      <c r="J81" s="26" t="str">
+        <f>C81</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K81" s="26" t="str">
+        <f t="shared" ref="K81" si="43">D81</f>
+        <v>BTK</v>
+      </c>
+      <c r="L81" s="26" t="str">
+        <f t="shared" ref="L81" si="44">E81</f>
+        <v>negFIN</v>
+      </c>
+      <c r="M81" s="26">
+        <f t="shared" ref="M81" si="45">F81</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
@@ -7216,7 +7304,7 @@
       <c r="D82" s="19">
         <v>6.58</v>
       </c>
-      <c r="E82" s="51">
+      <c r="E82" s="47">
         <v>1.1655260000000001</v>
       </c>
       <c r="F82" s="17"/>
@@ -7235,7 +7323,7 @@
       <c r="K82" s="31">
         <v>202</v>
       </c>
-      <c r="L82" s="53">
+      <c r="L82" s="49">
         <v>49</v>
       </c>
       <c r="M82" s="31"/>
@@ -7255,16 +7343,16 @@
       <c r="D83" s="25">
         <v>23.19</v>
       </c>
-      <c r="E83" s="51">
+      <c r="E83" s="47">
         <v>2.5217540000000001</v>
       </c>
       <c r="F83" s="17"/>
       <c r="H83" s="2">
-        <f t="shared" ref="H83:I84" si="12">A83</f>
+        <f t="shared" ref="H83:I84" si="46">A83</f>
         <v>1003</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="46"/>
         <v>523</v>
       </c>
       <c r="J83" s="27">
@@ -7274,7 +7362,7 @@
       <c r="K83" s="31">
         <v>222</v>
       </c>
-      <c r="L83" s="52">
+      <c r="L83" s="48">
         <v>49</v>
       </c>
       <c r="M83" s="31"/>
@@ -7294,16 +7382,16 @@
       <c r="D84" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E84" s="51">
+      <c r="E84" s="47">
         <v>9.6466209999999997</v>
       </c>
       <c r="F84" s="23"/>
       <c r="H84" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="46"/>
         <v>10034</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="46"/>
         <v>1581</v>
       </c>
       <c r="J84" s="27">
@@ -7313,7 +7401,7 @@
       <c r="K84" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L84" s="52">
+      <c r="L84" s="48">
         <v>50</v>
       </c>
       <c r="M84" s="32"/>
@@ -7421,16 +7509,22 @@
       <c r="I88" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M88" s="2"/>
+      <c r="J88" s="26" t="str">
+        <f>C88</f>
+        <v>HTK Miner</v>
+      </c>
+      <c r="K88" s="26" t="str">
+        <f t="shared" ref="K88" si="47">D88</f>
+        <v>BTK</v>
+      </c>
+      <c r="L88" s="26" t="str">
+        <f t="shared" ref="L88" si="48">E88</f>
+        <v>negFIN</v>
+      </c>
+      <c r="M88" s="26">
+        <f t="shared" ref="M88" si="49">F88</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
@@ -7447,7 +7541,7 @@
       <c r="D89" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="51">
+      <c r="E89" s="47">
         <v>117.098541</v>
       </c>
       <c r="F89" s="17"/>
@@ -7484,16 +7578,16 @@
       <c r="D90" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E90" s="51">
+      <c r="E90" s="47">
         <v>211.165368</v>
       </c>
       <c r="F90" s="17"/>
       <c r="H90" s="2">
-        <f t="shared" ref="H90:H91" si="13">A90</f>
+        <f t="shared" ref="H90:H91" si="50">A90</f>
         <v>1000</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" ref="I90:I91" si="14">B90</f>
+        <f t="shared" ref="I90:I91" si="51">B90</f>
         <v>523</v>
       </c>
       <c r="J90" s="46">
@@ -7501,7 +7595,7 @@
         <v>1934</v>
       </c>
       <c r="K90" s="31"/>
-      <c r="L90" s="52">
+      <c r="L90" s="48">
         <v>2957</v>
       </c>
       <c r="M90" s="31"/>
@@ -7524,11 +7618,11 @@
       <c r="E91" s="25"/>
       <c r="F91" s="23"/>
       <c r="H91" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="50"/>
         <v>10000</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="51"/>
         <v>1581</v>
       </c>
       <c r="J91" s="41" t="s">
@@ -7544,218 +7638,203 @@
     <mergeCell ref="H1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C7 E5:F7 C8:F8">
-    <cfRule type="cellIs" dxfId="42" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="87" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14 E12:F14 C15:F15">
-    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C22">
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C70">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>"1000+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F29">
-    <cfRule type="cellIs" dxfId="37" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:F36">
-    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F43">
-    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F50">
-    <cfRule type="cellIs" dxfId="34" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:F57">
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:F64">
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:F78">
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:F84">
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89:C91 E89:F91">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+  <conditionalFormatting sqref="C89:F91">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:F68 E69:F70 C71:F71">
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J22">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J28">
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J35">
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:J42">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:J49">
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:J56">
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J63">
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:J70">
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75:J77">
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82:J84">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J89:J90">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:M15">
-    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="35" operator="equal">
       <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91:M91">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M7 J8:M8 K12:M14 J15:M15 J22:M22 J29:M29 J36:M36 J43:M43 J50:M50 J57:M57 J64:M64 J71:M71 J78:M78 K19:M21">
-    <cfRule type="cellIs" dxfId="13" priority="60" operator="equal">
+  <conditionalFormatting sqref="K5:M7 J8:M8 K12:M14 J15:M15 K19:M21 J22:M22 J29:M29 J36:M36 J43:M43 J50:M50 J57:M57 J64:M64 J71:M71 J78:M78">
+    <cfRule type="cellIs" dxfId="10" priority="60" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:M28">
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:M35">
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:M42">
-    <cfRule type="cellIs" dxfId="10" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="57" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:M49">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:M56">
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:M63">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:M70">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75:M77">
-    <cfRule type="cellIs" dxfId="5" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="52" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K82:M84">
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K89:M90">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"n/a"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"300+++"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"300+++"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
